--- a/bio,mass_data_matinha_USP.xlsx
+++ b/bio,mass_data_matinha_USP.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28925"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="29029"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\Um mundo onde passado e futuro se colidem\O futuro também é sinistro\Matinha\biomass_data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{5D6616EF-B365-450B-9322-A0F9486DB0AE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD04347-E35F-47A6-8608-B89F44AD082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -435,10 +435,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-  <dimension ref="A1:G112"/>
+  <dimension ref="A1:G113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A78" workbookViewId="0">
-      <selection activeCell="A104" sqref="A104:A112"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="E7" sqref="E7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1748,7 +1748,7 @@
         <v>0.83</v>
       </c>
       <c r="G73">
-        <f t="shared" ref="G71:G74" si="0" xml:space="preserve"> (F73/E73)*100</f>
+        <f xml:space="preserve"> (F73/E73)*100</f>
         <v>38.073394495412835</v>
       </c>
     </row>
@@ -1772,7 +1772,7 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G74">
-        <f t="shared" si="0"/>
+        <f xml:space="preserve"> (F74/E74)*100</f>
         <v>36.184210526315788</v>
       </c>
     </row>
@@ -2068,7 +2068,7 @@
         <v>21.12</v>
       </c>
       <c r="G91">
-        <f t="shared" ref="G91" si="1" xml:space="preserve"> (F91/E91)*100</f>
+        <f xml:space="preserve"> (F91/E91)*100</f>
         <v>26.216484607745784</v>
       </c>
     </row>
@@ -2427,6 +2427,14 @@
       </c>
       <c r="E112">
         <v>17.399999999999999</v>
+      </c>
+    </row>
+    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="A113">
+        <v>39</v>
+      </c>
+      <c r="B113">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/bio,mass_data_matinha_USP.xlsx
+++ b/bio,mass_data_matinha_USP.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Pedro M\Desktop\r_analizes\palms_biomass\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6CD04347-E35F-47A6-8608-B89F44AD082B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F388EEB9-E031-4019-8893-6C46D9095D97}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{9F188378-987B-47FF-A329-9F0565C0E1BF}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Parcela</t>
   </si>
@@ -58,6 +58,18 @@
   <si>
     <t>secando</t>
   </si>
+  <si>
+    <t>% peso seco</t>
+  </si>
+  <si>
+    <t>% peso seco calculado</t>
+  </si>
+  <si>
+    <t>removido</t>
+  </si>
+  <si>
+    <t>Altura do primeira folha (um pouco abaixo do usual)</t>
+  </si>
 </sst>
 </file>
 
@@ -72,7 +84,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -82,6 +94,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -98,9 +116,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -435,15 +454,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F475214B-53DA-49F0-A7EF-0FA49EC8C506}">
-  <dimension ref="A1:G113"/>
+  <dimension ref="A1:H481"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A146" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="M157" sqref="M157"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -462,8 +482,14 @@
       <c r="F1" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" t="s">
+        <v>7</v>
+      </c>
+      <c r="H1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>21</v>
       </c>
@@ -479,8 +505,12 @@
       <c r="E2">
         <v>1.34</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2">
+        <f t="shared" ref="G2:G50" si="0">(F2*100/E2)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>21</v>
       </c>
@@ -496,8 +526,12 @@
       <c r="E3">
         <v>3.04</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4">
         <v>21</v>
       </c>
@@ -513,8 +547,12 @@
       <c r="E4">
         <v>3.29</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5">
         <v>21</v>
       </c>
@@ -530,8 +568,12 @@
       <c r="E5">
         <v>3.13</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6">
         <v>21</v>
       </c>
@@ -547,8 +589,12 @@
       <c r="E6">
         <v>2</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7">
         <v>21</v>
       </c>
@@ -564,8 +610,12 @@
       <c r="E7">
         <v>2.72</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8">
         <v>21</v>
       </c>
@@ -581,8 +631,12 @@
       <c r="E8">
         <v>5.68</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9">
         <v>21</v>
       </c>
@@ -598,8 +652,12 @@
       <c r="E9">
         <v>4.8899999999999997</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10">
         <v>21</v>
       </c>
@@ -615,8 +673,12 @@
       <c r="E10">
         <v>2.15</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11">
         <v>21</v>
       </c>
@@ -632,8 +694,12 @@
       <c r="E11">
         <v>4.83</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12">
         <v>21</v>
       </c>
@@ -649,8 +715,12 @@
       <c r="E12">
         <v>0.95</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13">
         <v>21</v>
       </c>
@@ -666,8 +736,12 @@
       <c r="E13">
         <v>1.95</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14">
         <v>21</v>
       </c>
@@ -683,8 +757,12 @@
       <c r="E14">
         <v>3.32</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15">
         <v>21</v>
       </c>
@@ -700,8 +778,12 @@
       <c r="E15">
         <v>2.98</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16">
         <v>21</v>
       </c>
@@ -716,6 +798,10 @@
       </c>
       <c r="E16">
         <v>1.56</v>
+      </c>
+      <c r="G16">
+        <f t="shared" si="0"/>
+        <v>0</v>
       </c>
     </row>
     <row r="17" spans="1:7" x14ac:dyDescent="0.25">
@@ -734,6 +820,10 @@
       <c r="E17">
         <v>2.38</v>
       </c>
+      <c r="G17">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18">
@@ -751,6 +841,10 @@
       <c r="E18">
         <v>2.7</v>
       </c>
+      <c r="G18">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19">
@@ -768,6 +862,10 @@
       <c r="E19">
         <v>2.2799999999999998</v>
       </c>
+      <c r="G19">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20">
@@ -785,6 +883,10 @@
       <c r="E20">
         <v>2.62</v>
       </c>
+      <c r="G20">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21">
@@ -802,6 +904,10 @@
       <c r="E21">
         <v>3.83</v>
       </c>
+      <c r="G21">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22">
@@ -819,6 +925,10 @@
       <c r="E22">
         <v>2.65</v>
       </c>
+      <c r="G22">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23">
@@ -836,6 +946,10 @@
       <c r="E23">
         <v>1.75</v>
       </c>
+      <c r="G23">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24">
@@ -853,6 +967,10 @@
       <c r="E24">
         <v>1.01</v>
       </c>
+      <c r="G24">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25">
@@ -870,6 +988,10 @@
       <c r="E25">
         <v>1.32</v>
       </c>
+      <c r="G25">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26">
@@ -887,6 +1009,10 @@
       <c r="E26">
         <v>0.5</v>
       </c>
+      <c r="G26">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27">
@@ -904,6 +1030,10 @@
       <c r="E27">
         <v>0.61</v>
       </c>
+      <c r="G27">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28">
@@ -921,6 +1051,10 @@
       <c r="E28">
         <v>1.81</v>
       </c>
+      <c r="G28">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29">
@@ -938,6 +1072,10 @@
       <c r="E29">
         <v>1.21</v>
       </c>
+      <c r="G29">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30">
@@ -955,6 +1093,10 @@
       <c r="E30">
         <v>1.18</v>
       </c>
+      <c r="G30">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31">
@@ -976,8 +1118,8 @@
         <v>5.92</v>
       </c>
       <c r="G31">
-        <f xml:space="preserve"> (F31/E31)*100</f>
-        <v>32.925472747497217</v>
+        <f t="shared" si="0"/>
+        <v>0.3292547274749722</v>
       </c>
     </row>
     <row r="32" spans="1:7" x14ac:dyDescent="0.25">
@@ -1000,11 +1142,11 @@
         <v>2.2000000000000002</v>
       </c>
       <c r="G32">
-        <f xml:space="preserve"> (F32/E32)*100</f>
-        <v>29.333333333333332</v>
-      </c>
-    </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+        <f t="shared" si="0"/>
+        <v>0.29333333333333333</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33">
         <v>22</v>
       </c>
@@ -1020,8 +1162,12 @@
       <c r="E33">
         <v>2.21</v>
       </c>
-    </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G33">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34">
         <v>22</v>
       </c>
@@ -1037,8 +1183,12 @@
       <c r="E34">
         <v>1.84</v>
       </c>
-    </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G34">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35">
         <v>22</v>
       </c>
@@ -1054,8 +1204,12 @@
       <c r="E35">
         <v>5.41</v>
       </c>
-    </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G35">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36">
         <v>22</v>
       </c>
@@ -1071,8 +1225,12 @@
       <c r="E36">
         <v>1.66</v>
       </c>
-    </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G36">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37">
         <v>22</v>
       </c>
@@ -1088,8 +1246,12 @@
       <c r="E37">
         <v>0.9</v>
       </c>
-    </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G37">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38">
         <v>22</v>
       </c>
@@ -1105,8 +1267,12 @@
       <c r="E38">
         <v>1.52</v>
       </c>
-    </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G38">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39">
         <v>22</v>
       </c>
@@ -1122,8 +1288,12 @@
       <c r="E39">
         <v>6.08</v>
       </c>
-    </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G39">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40">
         <v>22</v>
       </c>
@@ -1139,8 +1309,12 @@
       <c r="E40">
         <v>4.3</v>
       </c>
-    </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G40">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41">
         <v>22</v>
       </c>
@@ -1156,8 +1330,12 @@
       <c r="E41">
         <v>0.88</v>
       </c>
-    </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G41">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42">
         <v>22</v>
       </c>
@@ -1173,8 +1351,12 @@
       <c r="E42">
         <v>1.03</v>
       </c>
-    </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G42">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43">
         <v>22</v>
       </c>
@@ -1190,8 +1372,12 @@
       <c r="E43">
         <v>2.4</v>
       </c>
-    </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G43">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44">
         <v>22</v>
       </c>
@@ -1207,8 +1393,12 @@
       <c r="E44">
         <v>1.8</v>
       </c>
-    </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G44">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45">
         <v>22</v>
       </c>
@@ -1224,8 +1414,12 @@
       <c r="E45">
         <v>1.48</v>
       </c>
-    </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G45">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A46">
         <v>22</v>
       </c>
@@ -1241,8 +1435,12 @@
       <c r="E46">
         <v>1.51</v>
       </c>
-    </row>
-    <row r="47" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G46">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A47">
         <v>22</v>
       </c>
@@ -1258,8 +1456,12 @@
       <c r="E47">
         <v>0.83</v>
       </c>
-    </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G47">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A48">
         <v>22</v>
       </c>
@@ -1275,8 +1477,12 @@
       <c r="E48">
         <v>1.08</v>
       </c>
-    </row>
-    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G48">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="49" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A49">
         <v>22</v>
       </c>
@@ -1292,8 +1498,12 @@
       <c r="E49">
         <v>0.49</v>
       </c>
-    </row>
-    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G49">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="50" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A50">
         <v>26</v>
       </c>
@@ -1312,8 +1522,12 @@
       <c r="F50" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G50" t="e">
+        <f t="shared" si="0"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="51" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A51">
         <v>26</v>
       </c>
@@ -1333,11 +1547,15 @@
         <v>9.5299999999999994</v>
       </c>
       <c r="G51">
-        <f xml:space="preserve"> (F51/E51)*100</f>
-        <v>23.277967757694189</v>
-      </c>
-    </row>
-    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(F51*100/E51)/100</f>
+        <v>0.23277967757694185</v>
+      </c>
+      <c r="H51">
+        <f>E51*G51</f>
+        <v>9.5299999999999994</v>
+      </c>
+    </row>
+    <row r="52" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A52">
         <v>26</v>
       </c>
@@ -1353,8 +1571,12 @@
       <c r="E52">
         <v>2.27</v>
       </c>
-    </row>
-    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G52">
+        <f t="shared" ref="G52:G115" si="1">(F52*100/E52)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="53" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A53">
         <v>26</v>
       </c>
@@ -1370,8 +1592,12 @@
       <c r="E53">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G53">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="54" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A54">
         <v>26</v>
       </c>
@@ -1387,8 +1613,12 @@
       <c r="E54">
         <v>1.28</v>
       </c>
-    </row>
-    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G54">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A55">
         <v>26</v>
       </c>
@@ -1404,8 +1634,12 @@
       <c r="E55">
         <v>96.4</v>
       </c>
-    </row>
-    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G55">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="56" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A56">
         <v>27</v>
       </c>
@@ -1425,11 +1659,11 @@
         <v>72</v>
       </c>
       <c r="G56">
-        <f xml:space="preserve"> (F56/E56)*100</f>
-        <v>22.36024844720497</v>
-      </c>
-    </row>
-    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+        <f>(F56*100/E56)/100</f>
+        <v>0.2236024844720497</v>
+      </c>
+    </row>
+    <row r="57" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A57">
         <v>27</v>
       </c>
@@ -1449,11 +1683,11 @@
         <v>16.940000000000001</v>
       </c>
       <c r="G57">
-        <f xml:space="preserve"> (F57/E57)*100</f>
-        <v>26.045510455104548</v>
-      </c>
-    </row>
-    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+        <f t="shared" si="1"/>
+        <v>0.26045510455104554</v>
+      </c>
+    </row>
+    <row r="58" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A58">
         <v>27</v>
       </c>
@@ -1469,8 +1703,12 @@
       <c r="E58">
         <v>4.8</v>
       </c>
-    </row>
-    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G58">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A59">
         <v>27</v>
       </c>
@@ -1486,8 +1724,12 @@
       <c r="E59">
         <v>2.34</v>
       </c>
-    </row>
-    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G59">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="60" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A60">
         <v>28</v>
       </c>
@@ -1506,8 +1748,12 @@
       <c r="F60" s="1" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G60" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
+    </row>
+    <row r="61" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A61">
         <v>28</v>
       </c>
@@ -1523,8 +1769,12 @@
       <c r="E61">
         <v>1.5</v>
       </c>
-    </row>
-    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G61">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="62" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A62">
         <v>28</v>
       </c>
@@ -1540,8 +1790,12 @@
       <c r="E62">
         <v>31.98</v>
       </c>
-    </row>
-    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G62">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A63">
         <v>28</v>
       </c>
@@ -1557,8 +1811,12 @@
       <c r="E63">
         <v>16.010000000000002</v>
       </c>
-    </row>
-    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="G63">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="64" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A64">
         <v>28</v>
       </c>
@@ -1573,6 +1831,10 @@
       </c>
       <c r="E64">
         <v>6.65</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="1"/>
+        <v>0</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
@@ -1591,6 +1853,10 @@
       <c r="E65">
         <v>1.69</v>
       </c>
+      <c r="G65">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66">
@@ -1611,6 +1877,10 @@
       <c r="F66" s="1" t="s">
         <v>6</v>
       </c>
+      <c r="G66" t="e">
+        <f t="shared" si="1"/>
+        <v>#VALUE!</v>
+      </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67">
@@ -1628,6 +1898,10 @@
       <c r="E67">
         <v>5.12</v>
       </c>
+      <c r="G67">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68">
@@ -1645,6 +1919,10 @@
       <c r="E68">
         <v>1.94</v>
       </c>
+      <c r="G68">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69">
@@ -1662,6 +1940,10 @@
       <c r="E69">
         <v>13.24</v>
       </c>
+      <c r="G69">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70">
@@ -1679,6 +1961,10 @@
       <c r="E70">
         <v>12.76</v>
       </c>
+      <c r="G70">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71">
@@ -1700,8 +1986,8 @@
         <v>0.59</v>
       </c>
       <c r="G71">
-        <f xml:space="preserve"> (F71/E71)*100</f>
-        <v>59</v>
+        <f t="shared" si="1"/>
+        <v>0.59</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
@@ -1724,8 +2010,8 @@
         <v>3.08</v>
       </c>
       <c r="G72">
-        <f xml:space="preserve"> (F72/E72)*100</f>
-        <v>24.271079590228528</v>
+        <f t="shared" si="1"/>
+        <v>0.24271079590228528</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
@@ -1748,8 +2034,8 @@
         <v>0.83</v>
       </c>
       <c r="G73">
-        <f xml:space="preserve"> (F73/E73)*100</f>
-        <v>38.073394495412835</v>
+        <f t="shared" si="1"/>
+        <v>0.38073394495412843</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
@@ -1772,8 +2058,8 @@
         <v>1.1000000000000001</v>
       </c>
       <c r="G74">
-        <f xml:space="preserve"> (F74/E74)*100</f>
-        <v>36.184210526315788</v>
+        <f>(F74*100/E74)/100</f>
+        <v>0.36184210526315796</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
@@ -1792,6 +2078,10 @@
       <c r="E75">
         <v>5.68</v>
       </c>
+      <c r="G75">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76">
@@ -1809,6 +2099,10 @@
       <c r="E76">
         <v>8.19</v>
       </c>
+      <c r="G76">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77">
@@ -1826,6 +2120,10 @@
       <c r="E77">
         <v>3.69</v>
       </c>
+      <c r="G77">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78">
@@ -1843,6 +2141,10 @@
       <c r="E78">
         <v>1.83</v>
       </c>
+      <c r="G78">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79">
@@ -1860,6 +2162,10 @@
       <c r="E79">
         <v>2.0499999999999998</v>
       </c>
+      <c r="G79">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80">
@@ -1877,6 +2183,10 @@
       <c r="E80">
         <v>2.56</v>
       </c>
+      <c r="G80">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="81" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A81">
@@ -1894,6 +2204,10 @@
       <c r="E81">
         <v>1.55</v>
       </c>
+      <c r="G81">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="82" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A82">
@@ -1911,6 +2225,10 @@
       <c r="E82">
         <v>16.149999999999999</v>
       </c>
+      <c r="G82">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="83" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A83">
@@ -1928,6 +2246,10 @@
       <c r="E83">
         <v>2.36</v>
       </c>
+      <c r="G83">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="84" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A84">
@@ -1945,6 +2267,10 @@
       <c r="E84">
         <v>0.81</v>
       </c>
+      <c r="G84">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="85" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A85">
@@ -1962,6 +2288,10 @@
       <c r="E85">
         <v>1.96</v>
       </c>
+      <c r="G85">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="86" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A86">
@@ -1979,6 +2309,10 @@
       <c r="E86">
         <v>2.64</v>
       </c>
+      <c r="G86">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="87" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A87">
@@ -1996,6 +2330,10 @@
       <c r="E87">
         <v>2.95</v>
       </c>
+      <c r="G87">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="88" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A88">
@@ -2013,6 +2351,10 @@
       <c r="E88">
         <v>0.57999999999999996</v>
       </c>
+      <c r="G88">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="89" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A89">
@@ -2030,6 +2372,10 @@
       <c r="E89">
         <v>1.88</v>
       </c>
+      <c r="G89">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="90" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A90">
@@ -2047,6 +2393,10 @@
       <c r="E90">
         <v>1.76</v>
       </c>
+      <c r="G90">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="91" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A91">
@@ -2068,8 +2418,8 @@
         <v>21.12</v>
       </c>
       <c r="G91">
-        <f xml:space="preserve"> (F91/E91)*100</f>
-        <v>26.216484607745784</v>
+        <f>(F91*100/E91)/100</f>
+        <v>0.26216484607745782</v>
       </c>
     </row>
     <row r="92" spans="1:7" x14ac:dyDescent="0.25">
@@ -2088,6 +2438,10 @@
       <c r="E92">
         <v>48.35</v>
       </c>
+      <c r="G92">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="93" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A93">
@@ -2105,6 +2459,10 @@
       <c r="E93">
         <v>24.83</v>
       </c>
+      <c r="G93">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="94" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A94">
@@ -2122,6 +2480,10 @@
       <c r="E94">
         <v>39.93</v>
       </c>
+      <c r="G94">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="95" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A95">
@@ -2139,6 +2501,10 @@
       <c r="E95">
         <v>9.44</v>
       </c>
+      <c r="G95">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
     </row>
     <row r="96" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A96">
@@ -2156,8 +2522,12 @@
       <c r="E96">
         <v>4.66</v>
       </c>
-    </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G96">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="97" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A97">
         <v>25</v>
       </c>
@@ -2173,8 +2543,12 @@
       <c r="E97">
         <v>8.5299999999999994</v>
       </c>
-    </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G97">
+        <f>(F97*100/E97)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="98" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A98">
         <v>25</v>
       </c>
@@ -2190,8 +2564,12 @@
       <c r="E98">
         <v>11.26</v>
       </c>
-    </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G98">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A99">
         <v>25</v>
       </c>
@@ -2207,8 +2585,12 @@
       <c r="E99">
         <v>3.27</v>
       </c>
-    </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G99">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="100" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A100">
         <v>29</v>
       </c>
@@ -2224,8 +2606,12 @@
       <c r="E100">
         <v>0.41</v>
       </c>
-    </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G100">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="101" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A101">
         <v>29</v>
       </c>
@@ -2241,8 +2627,12 @@
       <c r="E101">
         <v>0.75</v>
       </c>
-    </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G101">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="102" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A102">
         <v>29</v>
       </c>
@@ -2258,8 +2648,12 @@
       <c r="E102">
         <v>35.06</v>
       </c>
-    </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G102">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="103" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A103">
         <v>29</v>
       </c>
@@ -2275,8 +2669,12 @@
       <c r="E103">
         <v>33.33</v>
       </c>
-    </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G103">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="104" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A104">
         <v>30</v>
       </c>
@@ -2292,8 +2690,12 @@
       <c r="E104">
         <v>77.16</v>
       </c>
-    </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G104">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="105" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A105">
         <v>30</v>
       </c>
@@ -2309,8 +2711,12 @@
       <c r="E105">
         <v>5.94</v>
       </c>
-    </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G105">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="106" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A106">
         <v>30</v>
       </c>
@@ -2326,8 +2732,12 @@
       <c r="E106">
         <v>38.19</v>
       </c>
-    </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G106">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="107" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A107">
         <v>30</v>
       </c>
@@ -2343,8 +2753,12 @@
       <c r="E107">
         <v>9.14</v>
       </c>
-    </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G107">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="108" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A108">
         <v>30</v>
       </c>
@@ -2360,8 +2774,12 @@
       <c r="E108">
         <v>38.22</v>
       </c>
-    </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G108">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="109" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A109">
         <v>30</v>
       </c>
@@ -2377,8 +2795,12 @@
       <c r="E109">
         <v>5.37</v>
       </c>
-    </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G109">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="110" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A110">
         <v>30</v>
       </c>
@@ -2394,8 +2816,12 @@
       <c r="E110">
         <v>13.5</v>
       </c>
-    </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G110">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="111" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A111">
         <v>30</v>
       </c>
@@ -2411,8 +2837,12 @@
       <c r="E111">
         <v>10.35</v>
       </c>
-    </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+      <c r="G111">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="112" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A112">
         <v>30</v>
       </c>
@@ -2428,13 +2858,7787 @@
       <c r="E112">
         <v>17.399999999999999</v>
       </c>
-    </row>
-    <row r="113" spans="1:2" x14ac:dyDescent="0.25">
+      <c r="G112">
+        <f t="shared" si="1"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="113" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A113">
         <v>39</v>
       </c>
       <c r="B113">
         <v>1</v>
+      </c>
+      <c r="C113">
+        <v>13.3</v>
+      </c>
+      <c r="D113">
+        <v>14</v>
+      </c>
+      <c r="E113">
+        <v>40</v>
+      </c>
+      <c r="F113">
+        <v>8</v>
+      </c>
+      <c r="G113">
+        <f t="shared" si="1"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="114" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A114">
+        <v>39</v>
+      </c>
+      <c r="B114">
+        <v>2</v>
+      </c>
+      <c r="C114">
+        <v>13.3</v>
+      </c>
+      <c r="D114">
+        <v>16</v>
+      </c>
+      <c r="E114">
+        <v>30</v>
+      </c>
+      <c r="F114">
+        <v>9</v>
+      </c>
+      <c r="G114">
+        <f>(F114*100/E114)/100</f>
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="115" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A115">
+        <v>39</v>
+      </c>
+      <c r="B115">
+        <v>3</v>
+      </c>
+      <c r="C115">
+        <v>20</v>
+      </c>
+      <c r="D115">
+        <v>21</v>
+      </c>
+      <c r="E115">
+        <v>70</v>
+      </c>
+      <c r="F115">
+        <v>15</v>
+      </c>
+      <c r="G115">
+        <f t="shared" si="1"/>
+        <v>0.21428571428571427</v>
+      </c>
+    </row>
+    <row r="116" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A116">
+        <v>39</v>
+      </c>
+      <c r="B116">
+        <v>4</v>
+      </c>
+      <c r="C116">
+        <v>14.9</v>
+      </c>
+      <c r="D116">
+        <v>16</v>
+      </c>
+      <c r="E116">
+        <v>60</v>
+      </c>
+      <c r="F116">
+        <v>11</v>
+      </c>
+      <c r="G116">
+        <f t="shared" ref="G116:G179" si="2">(F116*100/E116)/100</f>
+        <v>0.18333333333333332</v>
+      </c>
+    </row>
+    <row r="117" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A117">
+        <v>39</v>
+      </c>
+      <c r="B117">
+        <v>5</v>
+      </c>
+      <c r="C117">
+        <v>12.1</v>
+      </c>
+      <c r="D117">
+        <v>13.5</v>
+      </c>
+      <c r="E117">
+        <v>50</v>
+      </c>
+      <c r="F117">
+        <v>13</v>
+      </c>
+      <c r="G117">
+        <f t="shared" si="2"/>
+        <v>0.26</v>
+      </c>
+    </row>
+    <row r="118" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A118">
+        <v>39</v>
+      </c>
+      <c r="B118">
+        <v>6</v>
+      </c>
+      <c r="C118">
+        <v>28.2</v>
+      </c>
+      <c r="D118">
+        <v>23.5</v>
+      </c>
+      <c r="E118">
+        <v>110</v>
+      </c>
+      <c r="G118">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="119" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A119">
+        <v>39</v>
+      </c>
+      <c r="B119">
+        <v>7</v>
+      </c>
+      <c r="C119">
+        <v>7.7</v>
+      </c>
+      <c r="D119">
+        <v>10</v>
+      </c>
+      <c r="E119">
+        <v>8</v>
+      </c>
+      <c r="F119">
+        <v>1.45</v>
+      </c>
+      <c r="G119">
+        <f t="shared" si="2"/>
+        <v>0.18124999999999999</v>
+      </c>
+    </row>
+    <row r="120" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A120">
+        <v>39</v>
+      </c>
+      <c r="B120">
+        <v>8</v>
+      </c>
+      <c r="C120">
+        <v>25.6</v>
+      </c>
+      <c r="D120">
+        <v>20</v>
+      </c>
+      <c r="E120">
+        <v>80</v>
+      </c>
+      <c r="G120">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="121" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A121">
+        <v>39</v>
+      </c>
+      <c r="B121">
+        <v>9</v>
+      </c>
+      <c r="C121">
+        <v>26</v>
+      </c>
+      <c r="D121">
+        <v>19.5</v>
+      </c>
+      <c r="E121">
+        <v>110</v>
+      </c>
+      <c r="G121">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="122" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A122">
+        <v>39</v>
+      </c>
+      <c r="B122">
+        <v>10</v>
+      </c>
+      <c r="C122">
+        <v>13.4</v>
+      </c>
+      <c r="D122">
+        <v>14.5</v>
+      </c>
+      <c r="E122">
+        <v>40</v>
+      </c>
+      <c r="F122">
+        <v>8</v>
+      </c>
+      <c r="G122">
+        <f t="shared" si="2"/>
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="123" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A123">
+        <v>39</v>
+      </c>
+      <c r="B123">
+        <v>11</v>
+      </c>
+      <c r="C123">
+        <v>14.1</v>
+      </c>
+      <c r="D123">
+        <v>13</v>
+      </c>
+      <c r="E123">
+        <v>40</v>
+      </c>
+      <c r="G123">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="124" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A124">
+        <v>39</v>
+      </c>
+      <c r="B124">
+        <v>12</v>
+      </c>
+      <c r="C124">
+        <v>6.3</v>
+      </c>
+      <c r="D124">
+        <v>6.5</v>
+      </c>
+      <c r="E124">
+        <v>4</v>
+      </c>
+      <c r="G124">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="125" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A125">
+        <v>39</v>
+      </c>
+      <c r="B125">
+        <v>13</v>
+      </c>
+      <c r="C125">
+        <v>13.8</v>
+      </c>
+      <c r="D125">
+        <v>13</v>
+      </c>
+      <c r="E125">
+        <v>45</v>
+      </c>
+      <c r="G125">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="126" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A126">
+        <v>39</v>
+      </c>
+      <c r="B126">
+        <v>14</v>
+      </c>
+      <c r="C126">
+        <v>8.9</v>
+      </c>
+      <c r="D126">
+        <v>7</v>
+      </c>
+      <c r="E126">
+        <v>6</v>
+      </c>
+      <c r="G126">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="127" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A127">
+        <v>39</v>
+      </c>
+      <c r="B127">
+        <v>15</v>
+      </c>
+      <c r="C127">
+        <v>22.9</v>
+      </c>
+      <c r="D127">
+        <v>20</v>
+      </c>
+      <c r="E127">
+        <v>70</v>
+      </c>
+      <c r="G127">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="128" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A128">
+        <v>39</v>
+      </c>
+      <c r="B128">
+        <v>16</v>
+      </c>
+      <c r="C128">
+        <v>14.4</v>
+      </c>
+      <c r="D128">
+        <v>8.5</v>
+      </c>
+      <c r="E128">
+        <v>25</v>
+      </c>
+      <c r="G128">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="129" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A129">
+        <v>39</v>
+      </c>
+      <c r="B129">
+        <v>17</v>
+      </c>
+      <c r="C129">
+        <v>7.2</v>
+      </c>
+      <c r="D129">
+        <v>7.5</v>
+      </c>
+      <c r="E129">
+        <v>6</v>
+      </c>
+      <c r="G129">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="130" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A130">
+        <v>39</v>
+      </c>
+      <c r="B130">
+        <v>18</v>
+      </c>
+      <c r="C130">
+        <v>11.2</v>
+      </c>
+      <c r="D130">
+        <v>12</v>
+      </c>
+      <c r="E130">
+        <v>16</v>
+      </c>
+      <c r="G130">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="131" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A131">
+        <v>39</v>
+      </c>
+      <c r="B131">
+        <v>19</v>
+      </c>
+      <c r="C131">
+        <v>19.100000000000001</v>
+      </c>
+      <c r="D131">
+        <v>16.5</v>
+      </c>
+      <c r="E131">
+        <v>60</v>
+      </c>
+      <c r="G131">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="132" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A132">
+        <v>39</v>
+      </c>
+      <c r="B132">
+        <v>20</v>
+      </c>
+      <c r="C132">
+        <v>23</v>
+      </c>
+      <c r="D132">
+        <v>15.5</v>
+      </c>
+      <c r="E132">
+        <v>60</v>
+      </c>
+      <c r="G132">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="133" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A133">
+        <v>39</v>
+      </c>
+      <c r="B133">
+        <v>21</v>
+      </c>
+      <c r="C133">
+        <v>28.9</v>
+      </c>
+      <c r="D133">
+        <v>21.5</v>
+      </c>
+      <c r="E133">
+        <v>110</v>
+      </c>
+      <c r="G133">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="134" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A134">
+        <v>39</v>
+      </c>
+      <c r="B134">
+        <v>22</v>
+      </c>
+      <c r="C134">
+        <v>15</v>
+      </c>
+      <c r="D134">
+        <v>17</v>
+      </c>
+      <c r="E134">
+        <v>55</v>
+      </c>
+      <c r="G134">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="135" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A135">
+        <v>39</v>
+      </c>
+      <c r="B135">
+        <v>23</v>
+      </c>
+      <c r="C135">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D135">
+        <v>14.5</v>
+      </c>
+      <c r="E135">
+        <v>50</v>
+      </c>
+      <c r="G135">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="136" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A136">
+        <v>39</v>
+      </c>
+      <c r="B136">
+        <v>24</v>
+      </c>
+      <c r="C136">
+        <v>12.8</v>
+      </c>
+      <c r="D136">
+        <v>14</v>
+      </c>
+      <c r="E136">
+        <v>45</v>
+      </c>
+      <c r="G136">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="137" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A137">
+        <v>39</v>
+      </c>
+      <c r="B137">
+        <v>25</v>
+      </c>
+      <c r="C137">
+        <v>19.3</v>
+      </c>
+      <c r="D137">
+        <v>16.5</v>
+      </c>
+      <c r="E137">
+        <v>70</v>
+      </c>
+      <c r="G137">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="138" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A138">
+        <v>39</v>
+      </c>
+      <c r="B138">
+        <v>26</v>
+      </c>
+      <c r="C138">
+        <v>23</v>
+      </c>
+      <c r="D138">
+        <v>21</v>
+      </c>
+      <c r="E138">
+        <v>105</v>
+      </c>
+      <c r="G138">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="139" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A139">
+        <v>39</v>
+      </c>
+      <c r="B139">
+        <v>27</v>
+      </c>
+      <c r="C139">
+        <v>25.5</v>
+      </c>
+      <c r="D139">
+        <v>22.5</v>
+      </c>
+      <c r="E139">
+        <v>140</v>
+      </c>
+      <c r="G139">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="140" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A140">
+        <v>39</v>
+      </c>
+      <c r="B140">
+        <v>28</v>
+      </c>
+      <c r="C140">
+        <v>32.1</v>
+      </c>
+      <c r="D140">
+        <v>26</v>
+      </c>
+      <c r="E140">
+        <v>190</v>
+      </c>
+      <c r="G140">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="141" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A141">
+        <v>39</v>
+      </c>
+      <c r="B141">
+        <v>29</v>
+      </c>
+      <c r="C141">
+        <v>5.2</v>
+      </c>
+      <c r="D141">
+        <v>7</v>
+      </c>
+      <c r="E141">
+        <v>2</v>
+      </c>
+      <c r="G141">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="142" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A142">
+        <v>39</v>
+      </c>
+      <c r="B142">
+        <v>30</v>
+      </c>
+      <c r="C142">
+        <v>24.8</v>
+      </c>
+      <c r="D142">
+        <v>22.5</v>
+      </c>
+      <c r="E142">
+        <v>120</v>
+      </c>
+      <c r="G142">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="143" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A143">
+        <v>39</v>
+      </c>
+      <c r="B143">
+        <v>31</v>
+      </c>
+      <c r="C143">
+        <v>23.2</v>
+      </c>
+      <c r="D143">
+        <v>24</v>
+      </c>
+      <c r="E143">
+        <v>160</v>
+      </c>
+      <c r="G143">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="144" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A144">
+        <v>39</v>
+      </c>
+      <c r="B144">
+        <v>32</v>
+      </c>
+      <c r="C144">
+        <v>13.2</v>
+      </c>
+      <c r="D144">
+        <v>13</v>
+      </c>
+      <c r="E144">
+        <v>40</v>
+      </c>
+      <c r="G144">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="145" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A145">
+        <v>39</v>
+      </c>
+      <c r="B145">
+        <v>33</v>
+      </c>
+      <c r="C145">
+        <v>19</v>
+      </c>
+      <c r="D145">
+        <v>19</v>
+      </c>
+      <c r="E145">
+        <v>80</v>
+      </c>
+      <c r="G145">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="146" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A146">
+        <v>39</v>
+      </c>
+      <c r="B146">
+        <v>34</v>
+      </c>
+      <c r="C146">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D146">
+        <v>18.5</v>
+      </c>
+      <c r="E146">
+        <v>90</v>
+      </c>
+      <c r="G146">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="147" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A147">
+        <v>39</v>
+      </c>
+      <c r="B147">
+        <v>35</v>
+      </c>
+      <c r="C147">
+        <v>24.7</v>
+      </c>
+      <c r="D147">
+        <v>24</v>
+      </c>
+      <c r="E147">
+        <v>150</v>
+      </c>
+      <c r="G147">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="148" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A148">
+        <v>39</v>
+      </c>
+      <c r="B148">
+        <v>36</v>
+      </c>
+      <c r="C148">
+        <v>15</v>
+      </c>
+      <c r="D148">
+        <v>13</v>
+      </c>
+      <c r="E148">
+        <v>40</v>
+      </c>
+      <c r="G148">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="149" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A149">
+        <v>39</v>
+      </c>
+      <c r="B149">
+        <v>37</v>
+      </c>
+      <c r="C149">
+        <v>25</v>
+      </c>
+      <c r="D149">
+        <v>17</v>
+      </c>
+      <c r="E149">
+        <v>100</v>
+      </c>
+      <c r="G149">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="150" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A150">
+        <v>39</v>
+      </c>
+      <c r="B150">
+        <v>38</v>
+      </c>
+      <c r="C150">
+        <v>21</v>
+      </c>
+      <c r="D150">
+        <v>18.5</v>
+      </c>
+      <c r="E150">
+        <v>100</v>
+      </c>
+      <c r="G150">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="151" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A151">
+        <v>39</v>
+      </c>
+      <c r="B151">
+        <v>39</v>
+      </c>
+      <c r="C151">
+        <v>20</v>
+      </c>
+      <c r="D151">
+        <v>12</v>
+      </c>
+      <c r="E151">
+        <v>70</v>
+      </c>
+      <c r="G151">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="152" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A152">
+        <v>39</v>
+      </c>
+      <c r="B152">
+        <v>40</v>
+      </c>
+      <c r="C152">
+        <v>38</v>
+      </c>
+      <c r="D152">
+        <v>42</v>
+      </c>
+      <c r="E152">
+        <v>450</v>
+      </c>
+      <c r="G152">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="153" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A153">
+        <v>39</v>
+      </c>
+      <c r="B153">
+        <v>41</v>
+      </c>
+      <c r="C153">
+        <v>30</v>
+      </c>
+      <c r="D153">
+        <v>27</v>
+      </c>
+      <c r="E153">
+        <v>230</v>
+      </c>
+      <c r="G153">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="154" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A154">
+        <v>39</v>
+      </c>
+      <c r="B154">
+        <v>42</v>
+      </c>
+      <c r="C154">
+        <v>33.799999999999997</v>
+      </c>
+      <c r="D154">
+        <v>24</v>
+      </c>
+      <c r="E154">
+        <v>250</v>
+      </c>
+      <c r="G154">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="155" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A155">
+        <v>39</v>
+      </c>
+      <c r="B155">
+        <v>43</v>
+      </c>
+      <c r="C155">
+        <v>22</v>
+      </c>
+      <c r="D155">
+        <v>17.5</v>
+      </c>
+      <c r="E155">
+        <v>85</v>
+      </c>
+      <c r="G155">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="156" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A156">
+        <v>39</v>
+      </c>
+      <c r="B156">
+        <v>44</v>
+      </c>
+      <c r="C156">
+        <v>30</v>
+      </c>
+      <c r="D156">
+        <v>31.5</v>
+      </c>
+      <c r="E156">
+        <v>290</v>
+      </c>
+      <c r="G156">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="157" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A157">
+        <v>39</v>
+      </c>
+      <c r="B157">
+        <v>45</v>
+      </c>
+      <c r="C157">
+        <v>27</v>
+      </c>
+      <c r="D157">
+        <v>24.5</v>
+      </c>
+      <c r="E157">
+        <v>160</v>
+      </c>
+      <c r="G157">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="158" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A158">
+        <v>39</v>
+      </c>
+      <c r="B158">
+        <v>46</v>
+      </c>
+      <c r="C158">
+        <v>32</v>
+      </c>
+      <c r="D158">
+        <v>16.5</v>
+      </c>
+      <c r="E158">
+        <v>110</v>
+      </c>
+      <c r="G158">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="159" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A159">
+        <v>39</v>
+      </c>
+      <c r="B159">
+        <v>47</v>
+      </c>
+      <c r="C159">
+        <v>13.8</v>
+      </c>
+      <c r="D159">
+        <v>10</v>
+      </c>
+      <c r="E159">
+        <v>40</v>
+      </c>
+      <c r="G159">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="160" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A160">
+        <v>39</v>
+      </c>
+      <c r="B160">
+        <v>48</v>
+      </c>
+      <c r="C160">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D160">
+        <v>16.5</v>
+      </c>
+      <c r="E160">
+        <v>55</v>
+      </c>
+      <c r="G160">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="161" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A161">
+        <v>39</v>
+      </c>
+      <c r="B161">
+        <v>49</v>
+      </c>
+      <c r="C161">
+        <v>7.5</v>
+      </c>
+      <c r="D161">
+        <v>6</v>
+      </c>
+      <c r="E161">
+        <v>4.5</v>
+      </c>
+      <c r="G161">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="162" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A162">
+        <v>39</v>
+      </c>
+      <c r="B162">
+        <v>50</v>
+      </c>
+      <c r="C162">
+        <v>5.7</v>
+      </c>
+      <c r="D162">
+        <v>7.5</v>
+      </c>
+      <c r="E162">
+        <v>4</v>
+      </c>
+      <c r="G162">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="163" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A163">
+        <v>39</v>
+      </c>
+      <c r="B163">
+        <v>51</v>
+      </c>
+      <c r="C163">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D163">
+        <v>10</v>
+      </c>
+      <c r="E163">
+        <v>14</v>
+      </c>
+      <c r="G163">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="164" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A164">
+        <v>39</v>
+      </c>
+      <c r="B164">
+        <v>52</v>
+      </c>
+      <c r="C164">
+        <v>10</v>
+      </c>
+      <c r="D164">
+        <v>9</v>
+      </c>
+      <c r="E164">
+        <v>13</v>
+      </c>
+      <c r="G164">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="165" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A165">
+        <v>39</v>
+      </c>
+      <c r="B165">
+        <v>53</v>
+      </c>
+      <c r="C165">
+        <v>26.9</v>
+      </c>
+      <c r="D165">
+        <v>23.5</v>
+      </c>
+      <c r="E165">
+        <v>190</v>
+      </c>
+      <c r="G165">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="166" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A166">
+        <v>39</v>
+      </c>
+      <c r="B166">
+        <v>54</v>
+      </c>
+      <c r="C166">
+        <v>14</v>
+      </c>
+      <c r="D166">
+        <v>16</v>
+      </c>
+      <c r="E166">
+        <v>60</v>
+      </c>
+      <c r="G166">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="167" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A167">
+        <v>39</v>
+      </c>
+      <c r="B167">
+        <v>55</v>
+      </c>
+      <c r="C167">
+        <v>6.1</v>
+      </c>
+      <c r="D167">
+        <v>6</v>
+      </c>
+      <c r="E167">
+        <v>3.5</v>
+      </c>
+      <c r="G167">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="168" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A168">
+        <v>39</v>
+      </c>
+      <c r="B168">
+        <v>56</v>
+      </c>
+      <c r="C168">
+        <v>13.2</v>
+      </c>
+      <c r="D168">
+        <v>15</v>
+      </c>
+      <c r="E168">
+        <v>70</v>
+      </c>
+      <c r="G168">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="169" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A169">
+        <v>39</v>
+      </c>
+      <c r="B169">
+        <v>57</v>
+      </c>
+      <c r="C169">
+        <v>8.9</v>
+      </c>
+      <c r="D169">
+        <v>9.5</v>
+      </c>
+      <c r="E169">
+        <v>30</v>
+      </c>
+      <c r="G169">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="170" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A170">
+        <v>39</v>
+      </c>
+      <c r="B170">
+        <v>58</v>
+      </c>
+      <c r="C170">
+        <v>10.3</v>
+      </c>
+      <c r="D170">
+        <v>8.5</v>
+      </c>
+      <c r="E170">
+        <v>30</v>
+      </c>
+      <c r="G170">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="171" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A171">
+        <v>39</v>
+      </c>
+      <c r="B171">
+        <v>59</v>
+      </c>
+      <c r="C171">
+        <v>17</v>
+      </c>
+      <c r="D171">
+        <v>16</v>
+      </c>
+      <c r="E171">
+        <v>70</v>
+      </c>
+      <c r="G171">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="172" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A172">
+        <v>39</v>
+      </c>
+      <c r="B172">
+        <v>60</v>
+      </c>
+      <c r="C172">
+        <v>26.6</v>
+      </c>
+      <c r="D172">
+        <v>22.5</v>
+      </c>
+      <c r="E172">
+        <v>140</v>
+      </c>
+      <c r="G172">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="173" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A173">
+        <v>39</v>
+      </c>
+      <c r="B173">
+        <v>61</v>
+      </c>
+      <c r="C173">
+        <v>20.3</v>
+      </c>
+      <c r="D173">
+        <v>22</v>
+      </c>
+      <c r="E173">
+        <v>140</v>
+      </c>
+      <c r="G173">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="174" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A174">
+        <v>39</v>
+      </c>
+      <c r="B174">
+        <v>62</v>
+      </c>
+      <c r="C174">
+        <v>18.5</v>
+      </c>
+      <c r="D174">
+        <v>18</v>
+      </c>
+      <c r="E174">
+        <v>90</v>
+      </c>
+      <c r="G174">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="175" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A175">
+        <v>39</v>
+      </c>
+      <c r="B175">
+        <v>63</v>
+      </c>
+      <c r="C175">
+        <v>13.1</v>
+      </c>
+      <c r="D175">
+        <v>11</v>
+      </c>
+      <c r="E175">
+        <v>22</v>
+      </c>
+      <c r="G175">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="176" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A176">
+        <v>39</v>
+      </c>
+      <c r="B176">
+        <v>64</v>
+      </c>
+      <c r="C176">
+        <v>12.8</v>
+      </c>
+      <c r="D176">
+        <v>11</v>
+      </c>
+      <c r="E176">
+        <v>35</v>
+      </c>
+      <c r="G176">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="177" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A177">
+        <v>39</v>
+      </c>
+      <c r="B177">
+        <v>65</v>
+      </c>
+      <c r="C177">
+        <v>21.8</v>
+      </c>
+      <c r="D177">
+        <v>20</v>
+      </c>
+      <c r="E177">
+        <v>140</v>
+      </c>
+      <c r="G177">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="178" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A178">
+        <v>39</v>
+      </c>
+      <c r="B178">
+        <v>66</v>
+      </c>
+      <c r="C178">
+        <v>15.9</v>
+      </c>
+      <c r="D178">
+        <v>14.5</v>
+      </c>
+      <c r="E178">
+        <v>70</v>
+      </c>
+      <c r="G178">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="179" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A179">
+        <v>39</v>
+      </c>
+      <c r="B179">
+        <v>67</v>
+      </c>
+      <c r="C179">
+        <v>10.8</v>
+      </c>
+      <c r="D179">
+        <v>13</v>
+      </c>
+      <c r="E179">
+        <v>27</v>
+      </c>
+      <c r="G179">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="180" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A180">
+        <v>39</v>
+      </c>
+      <c r="B180">
+        <v>68</v>
+      </c>
+      <c r="C180">
+        <v>20.8</v>
+      </c>
+      <c r="D180">
+        <v>11.5</v>
+      </c>
+      <c r="E180">
+        <v>70</v>
+      </c>
+      <c r="G180">
+        <f t="shared" ref="G180:G243" si="3">(F180*100/E180)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="181" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A181">
+        <v>39</v>
+      </c>
+      <c r="B181">
+        <v>69</v>
+      </c>
+      <c r="C181">
+        <v>21.5</v>
+      </c>
+      <c r="D181">
+        <v>23.5</v>
+      </c>
+      <c r="E181">
+        <v>170</v>
+      </c>
+      <c r="G181">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="182" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A182">
+        <v>39</v>
+      </c>
+      <c r="B182">
+        <v>70</v>
+      </c>
+      <c r="C182">
+        <v>24.6</v>
+      </c>
+      <c r="D182">
+        <v>20.5</v>
+      </c>
+      <c r="E182">
+        <v>130</v>
+      </c>
+      <c r="G182">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="183" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A183">
+        <v>39</v>
+      </c>
+      <c r="B183">
+        <v>71</v>
+      </c>
+      <c r="C183">
+        <v>20.8</v>
+      </c>
+      <c r="D183">
+        <v>18.5</v>
+      </c>
+      <c r="E183">
+        <v>90</v>
+      </c>
+      <c r="G183">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="184" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A184">
+        <v>39</v>
+      </c>
+      <c r="B184">
+        <v>72</v>
+      </c>
+      <c r="C184">
+        <v>16.899999999999999</v>
+      </c>
+      <c r="D184">
+        <v>19</v>
+      </c>
+      <c r="E184">
+        <v>80</v>
+      </c>
+      <c r="G184">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="185" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A185">
+        <v>39</v>
+      </c>
+      <c r="B185">
+        <v>73</v>
+      </c>
+      <c r="C185">
+        <v>15.4</v>
+      </c>
+      <c r="D185">
+        <v>15.5</v>
+      </c>
+      <c r="E185">
+        <v>65</v>
+      </c>
+      <c r="G185">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="186" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A186">
+        <v>39</v>
+      </c>
+      <c r="B186">
+        <v>74</v>
+      </c>
+      <c r="C186">
+        <v>14.6</v>
+      </c>
+      <c r="D186">
+        <v>17</v>
+      </c>
+      <c r="E186">
+        <v>50</v>
+      </c>
+      <c r="G186">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="187" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A187">
+        <v>39</v>
+      </c>
+      <c r="B187">
+        <v>75</v>
+      </c>
+      <c r="C187">
+        <v>17.600000000000001</v>
+      </c>
+      <c r="D187">
+        <v>18</v>
+      </c>
+      <c r="E187">
+        <v>75</v>
+      </c>
+      <c r="G187">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="188" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A188">
+        <v>39</v>
+      </c>
+      <c r="B188">
+        <v>76</v>
+      </c>
+      <c r="C188">
+        <v>11.2</v>
+      </c>
+      <c r="D188">
+        <v>13.6</v>
+      </c>
+      <c r="E188">
+        <v>45</v>
+      </c>
+      <c r="G188">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="189" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A189">
+        <v>39</v>
+      </c>
+      <c r="B189">
+        <v>77</v>
+      </c>
+      <c r="C189">
+        <v>11.4</v>
+      </c>
+      <c r="D189">
+        <v>9.5</v>
+      </c>
+      <c r="E189">
+        <v>14</v>
+      </c>
+      <c r="G189">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="190" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A190">
+        <v>39</v>
+      </c>
+      <c r="B190">
+        <v>78</v>
+      </c>
+      <c r="C190">
+        <v>12.1</v>
+      </c>
+      <c r="D190">
+        <v>10</v>
+      </c>
+      <c r="E190">
+        <v>11.5</v>
+      </c>
+      <c r="G190">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="191" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A191">
+        <v>39</v>
+      </c>
+      <c r="B191">
+        <v>79</v>
+      </c>
+      <c r="C191">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="D191">
+        <v>10.5</v>
+      </c>
+      <c r="E191">
+        <v>9</v>
+      </c>
+      <c r="G191">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="192" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A192">
+        <v>39</v>
+      </c>
+      <c r="B192">
+        <v>80</v>
+      </c>
+      <c r="C192">
+        <v>37</v>
+      </c>
+      <c r="D192">
+        <v>29</v>
+      </c>
+      <c r="E192">
+        <v>480</v>
+      </c>
+      <c r="G192">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="193" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A193">
+        <v>39</v>
+      </c>
+      <c r="B193">
+        <v>81</v>
+      </c>
+      <c r="C193">
+        <v>44.4</v>
+      </c>
+      <c r="D193">
+        <v>34</v>
+      </c>
+      <c r="E193">
+        <v>670</v>
+      </c>
+      <c r="G193">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="194" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A194">
+        <v>39</v>
+      </c>
+      <c r="B194">
+        <v>82</v>
+      </c>
+      <c r="C194">
+        <v>45.4</v>
+      </c>
+      <c r="D194">
+        <v>45.5</v>
+      </c>
+      <c r="E194">
+        <v>990</v>
+      </c>
+      <c r="G194">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="195" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A195">
+        <v>39</v>
+      </c>
+      <c r="B195">
+        <v>83</v>
+      </c>
+      <c r="C195">
+        <v>27.8</v>
+      </c>
+      <c r="D195">
+        <v>21</v>
+      </c>
+      <c r="E195">
+        <v>160</v>
+      </c>
+      <c r="G195">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="196" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A196">
+        <v>39</v>
+      </c>
+      <c r="B196">
+        <v>84</v>
+      </c>
+      <c r="C196">
+        <v>25.1</v>
+      </c>
+      <c r="D196">
+        <v>26</v>
+      </c>
+      <c r="E196">
+        <v>240</v>
+      </c>
+      <c r="G196">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="197" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A197">
+        <v>39</v>
+      </c>
+      <c r="B197">
+        <v>85</v>
+      </c>
+      <c r="C197">
+        <v>23.2</v>
+      </c>
+      <c r="D197">
+        <v>22</v>
+      </c>
+      <c r="E197">
+        <v>155</v>
+      </c>
+      <c r="G197">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="198" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A198">
+        <v>39</v>
+      </c>
+      <c r="B198">
+        <v>86</v>
+      </c>
+      <c r="C198">
+        <v>9</v>
+      </c>
+      <c r="D198">
+        <v>10</v>
+      </c>
+      <c r="E198">
+        <v>10</v>
+      </c>
+      <c r="G198">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="199" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A199">
+        <v>39</v>
+      </c>
+      <c r="B199">
+        <v>87</v>
+      </c>
+      <c r="C199">
+        <v>27.5</v>
+      </c>
+      <c r="D199">
+        <v>21</v>
+      </c>
+      <c r="E199">
+        <v>190</v>
+      </c>
+      <c r="G199">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="200" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A200">
+        <v>39</v>
+      </c>
+      <c r="B200">
+        <v>88</v>
+      </c>
+      <c r="C200">
+        <v>28.3</v>
+      </c>
+      <c r="D200">
+        <v>25</v>
+      </c>
+      <c r="E200">
+        <v>190</v>
+      </c>
+      <c r="G200">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="201" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A201">
+        <v>39</v>
+      </c>
+      <c r="B201">
+        <v>89</v>
+      </c>
+      <c r="C201">
+        <v>32.9</v>
+      </c>
+      <c r="D201">
+        <v>32.5</v>
+      </c>
+      <c r="E201">
+        <v>350</v>
+      </c>
+      <c r="G201">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="202" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A202">
+        <v>39</v>
+      </c>
+      <c r="B202">
+        <v>90</v>
+      </c>
+      <c r="C202">
+        <v>31.2</v>
+      </c>
+      <c r="D202">
+        <v>27.5</v>
+      </c>
+      <c r="E202">
+        <v>160</v>
+      </c>
+      <c r="G202">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="203" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A203">
+        <v>39</v>
+      </c>
+      <c r="B203">
+        <v>91</v>
+      </c>
+      <c r="C203">
+        <v>38.700000000000003</v>
+      </c>
+      <c r="D203">
+        <v>26.5</v>
+      </c>
+      <c r="E203">
+        <v>250</v>
+      </c>
+      <c r="G203">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="204" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A204">
+        <v>39</v>
+      </c>
+      <c r="B204">
+        <v>92</v>
+      </c>
+      <c r="C204">
+        <v>32.6</v>
+      </c>
+      <c r="D204">
+        <v>22</v>
+      </c>
+      <c r="E204">
+        <v>175</v>
+      </c>
+      <c r="G204">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="205" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A205">
+        <v>39</v>
+      </c>
+      <c r="B205">
+        <v>93</v>
+      </c>
+      <c r="C205">
+        <v>28.4</v>
+      </c>
+      <c r="D205">
+        <v>25.5</v>
+      </c>
+      <c r="E205">
+        <v>220</v>
+      </c>
+      <c r="G205">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="206" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A206">
+        <v>39</v>
+      </c>
+      <c r="B206">
+        <v>94</v>
+      </c>
+      <c r="C206">
+        <v>57.1</v>
+      </c>
+      <c r="D206">
+        <v>69</v>
+      </c>
+      <c r="E206">
+        <v>1680</v>
+      </c>
+      <c r="G206">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="207" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A207">
+        <v>39</v>
+      </c>
+      <c r="B207">
+        <v>95</v>
+      </c>
+      <c r="C207">
+        <v>8.6</v>
+      </c>
+      <c r="D207">
+        <v>9</v>
+      </c>
+      <c r="E207">
+        <v>14</v>
+      </c>
+      <c r="G207">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="208" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A208">
+        <v>39</v>
+      </c>
+      <c r="B208">
+        <v>96</v>
+      </c>
+      <c r="C208">
+        <v>39.200000000000003</v>
+      </c>
+      <c r="D208">
+        <v>34</v>
+      </c>
+      <c r="E208">
+        <v>200</v>
+      </c>
+      <c r="G208">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="209" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A209">
+        <v>39</v>
+      </c>
+      <c r="B209">
+        <v>97</v>
+      </c>
+      <c r="C209">
+        <v>57.3</v>
+      </c>
+      <c r="D209">
+        <v>44</v>
+      </c>
+      <c r="E209">
+        <v>1010</v>
+      </c>
+      <c r="G209">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="210" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A210">
+        <v>39</v>
+      </c>
+      <c r="B210">
+        <v>98</v>
+      </c>
+      <c r="C210">
+        <v>69.5</v>
+      </c>
+      <c r="D210" s="2">
+        <v>146</v>
+      </c>
+      <c r="E210">
+        <v>5280</v>
+      </c>
+      <c r="G210">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="211" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A211">
+        <v>39</v>
+      </c>
+      <c r="B211">
+        <v>99</v>
+      </c>
+      <c r="C211">
+        <v>6.9</v>
+      </c>
+      <c r="D211">
+        <v>9</v>
+      </c>
+      <c r="E211">
+        <v>5</v>
+      </c>
+      <c r="G211">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="212" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A212">
+        <v>39</v>
+      </c>
+      <c r="B212">
+        <v>100</v>
+      </c>
+      <c r="C212">
+        <v>5.5</v>
+      </c>
+      <c r="D212">
+        <v>6</v>
+      </c>
+      <c r="E212">
+        <v>3.5</v>
+      </c>
+      <c r="G212">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="213" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A213">
+        <v>39</v>
+      </c>
+      <c r="B213">
+        <v>101</v>
+      </c>
+      <c r="C213">
+        <v>25.4</v>
+      </c>
+      <c r="D213">
+        <v>19</v>
+      </c>
+      <c r="E213">
+        <v>130</v>
+      </c>
+      <c r="G213">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="214" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A214">
+        <v>39</v>
+      </c>
+      <c r="B214">
+        <v>102</v>
+      </c>
+      <c r="C214">
+        <v>17.899999999999999</v>
+      </c>
+      <c r="D214">
+        <v>19</v>
+      </c>
+      <c r="E214">
+        <v>90</v>
+      </c>
+      <c r="G214">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="215" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A215">
+        <v>39</v>
+      </c>
+      <c r="B215">
+        <v>103</v>
+      </c>
+      <c r="C215">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D215">
+        <v>29</v>
+      </c>
+      <c r="E215">
+        <v>275</v>
+      </c>
+      <c r="G215">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="216" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A216">
+        <v>39</v>
+      </c>
+      <c r="B216">
+        <v>104</v>
+      </c>
+      <c r="C216">
+        <v>21.9</v>
+      </c>
+      <c r="D216">
+        <v>19.5</v>
+      </c>
+      <c r="E216">
+        <v>110</v>
+      </c>
+      <c r="G216">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="217" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A217">
+        <v>39</v>
+      </c>
+      <c r="B217">
+        <v>105</v>
+      </c>
+      <c r="C217">
+        <v>14.9</v>
+      </c>
+      <c r="D217">
+        <v>14.5</v>
+      </c>
+      <c r="E217">
+        <v>50</v>
+      </c>
+      <c r="G217">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="218" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A218">
+        <v>39</v>
+      </c>
+      <c r="B218">
+        <v>106</v>
+      </c>
+      <c r="C218">
+        <v>22.9</v>
+      </c>
+      <c r="D218">
+        <v>20</v>
+      </c>
+      <c r="E218">
+        <v>170</v>
+      </c>
+      <c r="G218">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="219" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A219">
+        <v>39</v>
+      </c>
+      <c r="B219">
+        <v>107</v>
+      </c>
+      <c r="C219">
+        <v>24.6</v>
+      </c>
+      <c r="D219">
+        <v>18.5</v>
+      </c>
+      <c r="E219">
+        <v>125</v>
+      </c>
+      <c r="G219">
+        <f>(F219*100/E219)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="220" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A220">
+        <v>39</v>
+      </c>
+      <c r="B220">
+        <v>108</v>
+      </c>
+      <c r="C220">
+        <v>22.4</v>
+      </c>
+      <c r="D220">
+        <v>26.5</v>
+      </c>
+      <c r="E220">
+        <v>185</v>
+      </c>
+      <c r="G220">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="221" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A221">
+        <v>39</v>
+      </c>
+      <c r="B221">
+        <v>109</v>
+      </c>
+      <c r="C221">
+        <v>17.399999999999999</v>
+      </c>
+      <c r="D221">
+        <v>22</v>
+      </c>
+      <c r="E221">
+        <v>95</v>
+      </c>
+      <c r="G221">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="222" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A222">
+        <v>39</v>
+      </c>
+      <c r="B222">
+        <v>120</v>
+      </c>
+      <c r="C222">
+        <v>13.9</v>
+      </c>
+      <c r="D222">
+        <v>14</v>
+      </c>
+      <c r="E222">
+        <v>55</v>
+      </c>
+      <c r="G222">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="223" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A223">
+        <v>39</v>
+      </c>
+      <c r="B223">
+        <v>121</v>
+      </c>
+      <c r="C223">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D223">
+        <v>15</v>
+      </c>
+      <c r="E223">
+        <v>70</v>
+      </c>
+      <c r="G223">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="224" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A224">
+        <v>39</v>
+      </c>
+      <c r="B224">
+        <v>122</v>
+      </c>
+      <c r="C224">
+        <v>24.1</v>
+      </c>
+      <c r="D224">
+        <v>16.5</v>
+      </c>
+      <c r="E224">
+        <v>80</v>
+      </c>
+      <c r="G224">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="225" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A225">
+        <v>39</v>
+      </c>
+      <c r="B225">
+        <v>123</v>
+      </c>
+      <c r="C225">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="D225">
+        <v>11.5</v>
+      </c>
+      <c r="E225">
+        <v>13</v>
+      </c>
+      <c r="G225">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="226" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A226">
+        <v>39</v>
+      </c>
+      <c r="B226">
+        <v>124</v>
+      </c>
+      <c r="C226">
+        <v>11.4</v>
+      </c>
+      <c r="D226">
+        <v>11</v>
+      </c>
+      <c r="E226">
+        <v>22</v>
+      </c>
+      <c r="G226">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="227" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A227">
+        <v>39</v>
+      </c>
+      <c r="B227">
+        <v>125</v>
+      </c>
+      <c r="C227">
+        <v>8.5</v>
+      </c>
+      <c r="D227">
+        <v>10.5</v>
+      </c>
+      <c r="E227">
+        <v>17</v>
+      </c>
+      <c r="G227">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="228" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A228">
+        <v>39</v>
+      </c>
+      <c r="B228">
+        <v>126</v>
+      </c>
+      <c r="C228">
+        <v>24.7</v>
+      </c>
+      <c r="D228">
+        <v>26.5</v>
+      </c>
+      <c r="E228">
+        <v>195</v>
+      </c>
+      <c r="G228">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="229" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A229">
+        <v>39</v>
+      </c>
+      <c r="B229">
+        <v>127</v>
+      </c>
+      <c r="C229">
+        <v>7.3</v>
+      </c>
+      <c r="D229">
+        <v>8</v>
+      </c>
+      <c r="E229">
+        <v>11</v>
+      </c>
+      <c r="G229">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="230" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A230">
+        <v>39</v>
+      </c>
+      <c r="B230">
+        <v>128</v>
+      </c>
+      <c r="C230">
+        <v>28</v>
+      </c>
+      <c r="D230">
+        <v>17</v>
+      </c>
+      <c r="E230">
+        <v>160</v>
+      </c>
+      <c r="G230">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="231" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A231">
+        <v>39</v>
+      </c>
+      <c r="B231">
+        <v>129</v>
+      </c>
+      <c r="C231">
+        <v>22.3</v>
+      </c>
+      <c r="D231">
+        <v>21</v>
+      </c>
+      <c r="E231">
+        <v>120</v>
+      </c>
+      <c r="G231">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="232" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A232">
+        <v>39</v>
+      </c>
+      <c r="B232">
+        <v>130</v>
+      </c>
+      <c r="C232">
+        <v>9</v>
+      </c>
+      <c r="D232">
+        <v>9.5</v>
+      </c>
+      <c r="E232">
+        <v>14</v>
+      </c>
+      <c r="G232">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="233" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A233">
+        <v>39</v>
+      </c>
+      <c r="B233">
+        <v>131</v>
+      </c>
+      <c r="C233">
+        <v>14.7</v>
+      </c>
+      <c r="D233">
+        <v>10</v>
+      </c>
+      <c r="E233">
+        <v>22</v>
+      </c>
+      <c r="G233">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="234" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A234">
+        <v>39</v>
+      </c>
+      <c r="B234">
+        <v>132</v>
+      </c>
+      <c r="C234">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D234">
+        <v>13.5</v>
+      </c>
+      <c r="E234">
+        <v>70</v>
+      </c>
+      <c r="G234">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="235" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A235">
+        <v>39</v>
+      </c>
+      <c r="B235">
+        <v>133</v>
+      </c>
+      <c r="C235">
+        <v>24.2</v>
+      </c>
+      <c r="D235">
+        <v>24</v>
+      </c>
+      <c r="E235">
+        <v>125</v>
+      </c>
+      <c r="G235">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="236" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A236">
+        <v>39</v>
+      </c>
+      <c r="B236">
+        <v>134</v>
+      </c>
+      <c r="C236">
+        <v>30</v>
+      </c>
+      <c r="D236">
+        <v>27</v>
+      </c>
+      <c r="E236">
+        <v>290</v>
+      </c>
+      <c r="G236">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="237" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A237">
+        <v>39</v>
+      </c>
+      <c r="B237">
+        <v>135</v>
+      </c>
+      <c r="C237">
+        <v>23.3</v>
+      </c>
+      <c r="D237">
+        <v>21.5</v>
+      </c>
+      <c r="E237">
+        <v>130</v>
+      </c>
+      <c r="G237">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="238" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A238">
+        <v>39</v>
+      </c>
+      <c r="B238">
+        <v>136</v>
+      </c>
+      <c r="C238">
+        <v>17.8</v>
+      </c>
+      <c r="D238">
+        <v>13</v>
+      </c>
+      <c r="E238">
+        <v>40</v>
+      </c>
+      <c r="G238">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="239" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A239">
+        <v>39</v>
+      </c>
+      <c r="B239">
+        <v>137</v>
+      </c>
+      <c r="C239">
+        <v>10.1</v>
+      </c>
+      <c r="D239">
+        <v>8.5</v>
+      </c>
+      <c r="E239">
+        <v>13</v>
+      </c>
+      <c r="G239">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="240" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A240">
+        <v>39</v>
+      </c>
+      <c r="B240">
+        <v>138</v>
+      </c>
+      <c r="C240">
+        <v>19.7</v>
+      </c>
+      <c r="D240">
+        <v>20.5</v>
+      </c>
+      <c r="E240">
+        <v>85</v>
+      </c>
+      <c r="G240">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="241" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A241">
+        <v>39</v>
+      </c>
+      <c r="B241">
+        <v>139</v>
+      </c>
+      <c r="C241">
+        <v>47</v>
+      </c>
+      <c r="D241">
+        <v>33.5</v>
+      </c>
+      <c r="E241">
+        <v>360</v>
+      </c>
+      <c r="G241">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="242" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A242">
+        <v>39</v>
+      </c>
+      <c r="B242">
+        <v>140</v>
+      </c>
+      <c r="C242">
+        <v>15</v>
+      </c>
+      <c r="D242">
+        <v>15.5</v>
+      </c>
+      <c r="E242">
+        <v>70</v>
+      </c>
+      <c r="G242">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="243" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A243">
+        <v>39</v>
+      </c>
+      <c r="B243">
+        <v>141</v>
+      </c>
+      <c r="C243">
+        <v>31.6</v>
+      </c>
+      <c r="D243">
+        <v>19</v>
+      </c>
+      <c r="E243">
+        <v>140</v>
+      </c>
+      <c r="G243">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="244" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A244">
+        <v>39</v>
+      </c>
+      <c r="B244">
+        <v>142</v>
+      </c>
+      <c r="C244">
+        <v>14</v>
+      </c>
+      <c r="D244">
+        <v>12.5</v>
+      </c>
+      <c r="E244">
+        <v>25</v>
+      </c>
+      <c r="G244">
+        <f t="shared" ref="G244:G307" si="4">(F244*100/E244)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="245" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A245">
+        <v>39</v>
+      </c>
+      <c r="B245">
+        <v>143</v>
+      </c>
+      <c r="C245">
+        <v>14.9</v>
+      </c>
+      <c r="D245">
+        <v>15</v>
+      </c>
+      <c r="E245">
+        <v>40</v>
+      </c>
+      <c r="G245">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="246" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A246">
+        <v>39</v>
+      </c>
+      <c r="B246">
+        <v>144</v>
+      </c>
+      <c r="C246">
+        <v>22.5</v>
+      </c>
+      <c r="D246">
+        <v>19</v>
+      </c>
+      <c r="E246">
+        <v>130</v>
+      </c>
+      <c r="G246">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="247" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A247">
+        <v>39</v>
+      </c>
+      <c r="B247">
+        <v>145</v>
+      </c>
+      <c r="C247">
+        <v>10.1</v>
+      </c>
+      <c r="D247">
+        <v>10.5</v>
+      </c>
+      <c r="E247">
+        <v>14</v>
+      </c>
+      <c r="G247">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="248" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A248">
+        <v>39</v>
+      </c>
+      <c r="B248">
+        <v>146</v>
+      </c>
+      <c r="C248">
+        <v>21.3</v>
+      </c>
+      <c r="D248">
+        <v>22</v>
+      </c>
+      <c r="E248">
+        <v>120</v>
+      </c>
+      <c r="G248">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="249" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A249">
+        <v>39</v>
+      </c>
+      <c r="B249">
+        <v>147</v>
+      </c>
+      <c r="C249">
+        <v>14.8</v>
+      </c>
+      <c r="D249">
+        <v>15</v>
+      </c>
+      <c r="E249">
+        <v>45</v>
+      </c>
+      <c r="G249">
+        <f t="shared" si="4"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="250" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A250">
+        <v>39</v>
+      </c>
+      <c r="B250">
+        <v>148</v>
+      </c>
+      <c r="C250">
+        <v>16.8</v>
+      </c>
+      <c r="D250">
+        <v>12.5</v>
+      </c>
+      <c r="E250">
+        <v>45</v>
+      </c>
+      <c r="G250">
+        <f>(F250*100/E250)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="251" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A251">
+        <v>39</v>
+      </c>
+      <c r="B251">
+        <v>149</v>
+      </c>
+      <c r="G251" t="e">
+        <f t="shared" ref="G251:G261" si="5">(F251*100/E251)/100</f>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="252" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A252">
+        <v>39</v>
+      </c>
+      <c r="B252">
+        <v>150</v>
+      </c>
+      <c r="G252" t="e">
+        <f t="shared" si="5"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="253" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A253">
+        <v>39</v>
+      </c>
+      <c r="B253">
+        <v>151</v>
+      </c>
+      <c r="C253">
+        <v>29.6</v>
+      </c>
+      <c r="D253">
+        <v>29</v>
+      </c>
+      <c r="E253">
+        <v>215</v>
+      </c>
+      <c r="G253">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="254" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A254">
+        <v>39</v>
+      </c>
+      <c r="B254">
+        <v>152</v>
+      </c>
+      <c r="C254">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D254">
+        <v>19.5</v>
+      </c>
+      <c r="E254">
+        <v>100</v>
+      </c>
+      <c r="G254">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="255" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A255">
+        <v>39</v>
+      </c>
+      <c r="B255">
+        <v>153</v>
+      </c>
+      <c r="C255">
+        <v>4</v>
+      </c>
+      <c r="D255">
+        <v>7</v>
+      </c>
+      <c r="E255">
+        <v>2</v>
+      </c>
+      <c r="G255">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="256" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A256">
+        <v>39</v>
+      </c>
+      <c r="B256">
+        <v>154</v>
+      </c>
+      <c r="C256">
+        <v>21.5</v>
+      </c>
+      <c r="D256">
+        <v>20</v>
+      </c>
+      <c r="E256">
+        <v>85</v>
+      </c>
+      <c r="G256">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="257" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A257">
+        <v>39</v>
+      </c>
+      <c r="B257">
+        <v>155</v>
+      </c>
+      <c r="C257">
+        <v>21.1</v>
+      </c>
+      <c r="D257">
+        <v>17</v>
+      </c>
+      <c r="E257">
+        <v>70</v>
+      </c>
+      <c r="G257">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="258" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A258">
+        <v>39</v>
+      </c>
+      <c r="B258">
+        <v>156</v>
+      </c>
+      <c r="C258">
+        <v>24.5</v>
+      </c>
+      <c r="D258">
+        <v>26</v>
+      </c>
+      <c r="E258">
+        <v>220</v>
+      </c>
+      <c r="G258">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="259" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A259">
+        <v>39</v>
+      </c>
+      <c r="B259">
+        <v>157</v>
+      </c>
+      <c r="C259">
+        <v>24.4</v>
+      </c>
+      <c r="D259">
+        <v>21</v>
+      </c>
+      <c r="E259">
+        <v>110</v>
+      </c>
+      <c r="G259">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="260" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A260">
+        <v>39</v>
+      </c>
+      <c r="B260">
+        <v>158</v>
+      </c>
+      <c r="C260">
+        <v>23.4</v>
+      </c>
+      <c r="D260">
+        <v>20</v>
+      </c>
+      <c r="E260">
+        <v>110</v>
+      </c>
+      <c r="G260">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="261" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A261">
+        <v>39</v>
+      </c>
+      <c r="B261">
+        <v>159</v>
+      </c>
+      <c r="C261">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D261">
+        <v>24</v>
+      </c>
+      <c r="E261">
+        <v>135</v>
+      </c>
+      <c r="G261">
+        <f>(F261*100/E261)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="262" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A262">
+        <v>39</v>
+      </c>
+      <c r="B262">
+        <v>160</v>
+      </c>
+      <c r="C262">
+        <v>29.2</v>
+      </c>
+      <c r="D262">
+        <v>31</v>
+      </c>
+      <c r="E262">
+        <v>260</v>
+      </c>
+      <c r="G262">
+        <f t="shared" ref="G262:G325" si="6">(F262*100/E262)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="263" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A263">
+        <v>39</v>
+      </c>
+      <c r="B263">
+        <v>161</v>
+      </c>
+      <c r="C263">
+        <v>20.100000000000001</v>
+      </c>
+      <c r="D263">
+        <v>16.5</v>
+      </c>
+      <c r="E263">
+        <v>80</v>
+      </c>
+      <c r="G263">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="264" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A264">
+        <v>39</v>
+      </c>
+      <c r="B264">
+        <v>162</v>
+      </c>
+      <c r="C264">
+        <v>14.3</v>
+      </c>
+      <c r="D264">
+        <v>14</v>
+      </c>
+      <c r="E264">
+        <v>60</v>
+      </c>
+      <c r="G264">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="265" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A265">
+        <v>39</v>
+      </c>
+      <c r="B265">
+        <v>163</v>
+      </c>
+      <c r="C265">
+        <v>14.1</v>
+      </c>
+      <c r="D265">
+        <v>16</v>
+      </c>
+      <c r="E265">
+        <v>50</v>
+      </c>
+      <c r="G265">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="266" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A266">
+        <v>39</v>
+      </c>
+      <c r="B266">
+        <v>164</v>
+      </c>
+      <c r="C266">
+        <v>16.5</v>
+      </c>
+      <c r="D266">
+        <v>14.5</v>
+      </c>
+      <c r="E266">
+        <v>70</v>
+      </c>
+      <c r="G266">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="267" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A267">
+        <v>39</v>
+      </c>
+      <c r="B267">
+        <v>165</v>
+      </c>
+      <c r="C267">
+        <v>19.600000000000001</v>
+      </c>
+      <c r="D267">
+        <v>20</v>
+      </c>
+      <c r="E267">
+        <v>95</v>
+      </c>
+      <c r="G267">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="268" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A268">
+        <v>39</v>
+      </c>
+      <c r="B268">
+        <v>166</v>
+      </c>
+      <c r="C268">
+        <v>21.9</v>
+      </c>
+      <c r="D268">
+        <v>23</v>
+      </c>
+      <c r="E268">
+        <v>170</v>
+      </c>
+      <c r="G268">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="269" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A269">
+        <v>39</v>
+      </c>
+      <c r="B269">
+        <v>167</v>
+      </c>
+      <c r="C269">
+        <v>21.2</v>
+      </c>
+      <c r="D269">
+        <v>15</v>
+      </c>
+      <c r="E269">
+        <v>80</v>
+      </c>
+      <c r="G269">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="270" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A270">
+        <v>39</v>
+      </c>
+      <c r="B270">
+        <v>168</v>
+      </c>
+      <c r="C270">
+        <v>9.3000000000000007</v>
+      </c>
+      <c r="D270">
+        <v>9</v>
+      </c>
+      <c r="E270">
+        <v>11</v>
+      </c>
+      <c r="G270">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="271" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A271">
+        <v>39</v>
+      </c>
+      <c r="B271">
+        <v>169</v>
+      </c>
+      <c r="C271">
+        <v>26.5</v>
+      </c>
+      <c r="D271">
+        <v>31.5</v>
+      </c>
+      <c r="E271">
+        <v>280</v>
+      </c>
+      <c r="G271">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="272" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A272">
+        <v>39</v>
+      </c>
+      <c r="B272">
+        <v>170</v>
+      </c>
+      <c r="C272">
+        <v>13.6</v>
+      </c>
+      <c r="D272">
+        <v>16</v>
+      </c>
+      <c r="E272">
+        <v>50</v>
+      </c>
+      <c r="G272">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="273" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A273">
+        <v>39</v>
+      </c>
+      <c r="B273">
+        <v>171</v>
+      </c>
+      <c r="G273" t="e">
+        <f t="shared" si="6"/>
+        <v>#DIV/0!</v>
+      </c>
+    </row>
+    <row r="274" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A274">
+        <v>39</v>
+      </c>
+      <c r="B274">
+        <v>172</v>
+      </c>
+      <c r="C274">
+        <v>22.8</v>
+      </c>
+      <c r="D274">
+        <v>22</v>
+      </c>
+      <c r="E274">
+        <v>200</v>
+      </c>
+      <c r="G274">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="275" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A275">
+        <v>39</v>
+      </c>
+      <c r="B275">
+        <v>173</v>
+      </c>
+      <c r="C275">
+        <v>15</v>
+      </c>
+      <c r="D275">
+        <v>14.5</v>
+      </c>
+      <c r="E275">
+        <v>55</v>
+      </c>
+      <c r="G275">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="276" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A276">
+        <v>39</v>
+      </c>
+      <c r="B276">
+        <v>174</v>
+      </c>
+      <c r="C276">
+        <v>23</v>
+      </c>
+      <c r="D276">
+        <v>19</v>
+      </c>
+      <c r="E276">
+        <v>110</v>
+      </c>
+      <c r="G276">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="277" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A277">
+        <v>39</v>
+      </c>
+      <c r="B277">
+        <v>175</v>
+      </c>
+      <c r="C277">
+        <v>29.1</v>
+      </c>
+      <c r="D277">
+        <v>28</v>
+      </c>
+      <c r="E277">
+        <v>220</v>
+      </c>
+      <c r="G277">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="278" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A278">
+        <v>39</v>
+      </c>
+      <c r="B278">
+        <v>176</v>
+      </c>
+      <c r="C278">
+        <v>26.1</v>
+      </c>
+      <c r="D278">
+        <v>26</v>
+      </c>
+      <c r="E278">
+        <v>170</v>
+      </c>
+      <c r="G278">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="279" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A279">
+        <v>39</v>
+      </c>
+      <c r="B279">
+        <v>177</v>
+      </c>
+      <c r="C279">
+        <v>28</v>
+      </c>
+      <c r="D279">
+        <v>26.5</v>
+      </c>
+      <c r="E279">
+        <v>220</v>
+      </c>
+      <c r="G279">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="280" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A280">
+        <v>39</v>
+      </c>
+      <c r="B280">
+        <v>178</v>
+      </c>
+      <c r="C280">
+        <v>38.9</v>
+      </c>
+      <c r="D280">
+        <v>47</v>
+      </c>
+      <c r="E280">
+        <v>640</v>
+      </c>
+      <c r="G280">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="281" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A281">
+        <v>39</v>
+      </c>
+      <c r="B281">
+        <v>179</v>
+      </c>
+      <c r="C281">
+        <v>27.3</v>
+      </c>
+      <c r="D281">
+        <v>31</v>
+      </c>
+      <c r="E281">
+        <v>320</v>
+      </c>
+      <c r="G281">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="282" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A282">
+        <v>39</v>
+      </c>
+      <c r="B282">
+        <v>180</v>
+      </c>
+      <c r="C282">
+        <v>37.6</v>
+      </c>
+      <c r="D282">
+        <v>35</v>
+      </c>
+      <c r="E282">
+        <v>355</v>
+      </c>
+      <c r="G282">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="283" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A283">
+        <v>39</v>
+      </c>
+      <c r="B283">
+        <v>181</v>
+      </c>
+      <c r="C283">
+        <v>29</v>
+      </c>
+      <c r="D283">
+        <v>27</v>
+      </c>
+      <c r="E283">
+        <v>240</v>
+      </c>
+      <c r="G283">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="284" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A284">
+        <v>39</v>
+      </c>
+      <c r="B284">
+        <v>182</v>
+      </c>
+      <c r="C284">
+        <v>17.8</v>
+      </c>
+      <c r="D284">
+        <v>17.5</v>
+      </c>
+      <c r="E284">
+        <v>280</v>
+      </c>
+      <c r="G284">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="285" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A285">
+        <v>39</v>
+      </c>
+      <c r="B285">
+        <v>183</v>
+      </c>
+      <c r="C285">
+        <v>21.2</v>
+      </c>
+      <c r="D285">
+        <v>19.5</v>
+      </c>
+      <c r="E285">
+        <v>135</v>
+      </c>
+      <c r="G285">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="286" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A286">
+        <v>39</v>
+      </c>
+      <c r="B286">
+        <v>184</v>
+      </c>
+      <c r="C286">
+        <v>19.899999999999999</v>
+      </c>
+      <c r="D286">
+        <v>17</v>
+      </c>
+      <c r="E286">
+        <v>80</v>
+      </c>
+      <c r="G286">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="287" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A287">
+        <v>39</v>
+      </c>
+      <c r="B287">
+        <v>185</v>
+      </c>
+      <c r="C287">
+        <v>25.8</v>
+      </c>
+      <c r="D287">
+        <v>26</v>
+      </c>
+      <c r="E287">
+        <v>160</v>
+      </c>
+      <c r="G287">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="288" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A288">
+        <v>39</v>
+      </c>
+      <c r="B288">
+        <v>186</v>
+      </c>
+      <c r="C288">
+        <v>18.5</v>
+      </c>
+      <c r="D288">
+        <v>36</v>
+      </c>
+      <c r="E288">
+        <v>305</v>
+      </c>
+      <c r="G288">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="289" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A289">
+        <v>39</v>
+      </c>
+      <c r="B289">
+        <v>187</v>
+      </c>
+      <c r="C289">
+        <v>29.5</v>
+      </c>
+      <c r="D289">
+        <v>37</v>
+      </c>
+      <c r="E289">
+        <v>460</v>
+      </c>
+      <c r="G289">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="290" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A290">
+        <v>39</v>
+      </c>
+      <c r="B290">
+        <v>188</v>
+      </c>
+      <c r="C290">
+        <v>3.8</v>
+      </c>
+      <c r="D290">
+        <v>14</v>
+      </c>
+      <c r="E290">
+        <v>40</v>
+      </c>
+      <c r="G290">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="291" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A291">
+        <v>39</v>
+      </c>
+      <c r="B291">
+        <v>189</v>
+      </c>
+      <c r="C291">
+        <v>54.8</v>
+      </c>
+      <c r="D291">
+        <v>78</v>
+      </c>
+      <c r="E291">
+        <v>1650</v>
+      </c>
+      <c r="G291">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="292" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A292">
+        <v>39</v>
+      </c>
+      <c r="B292">
+        <v>190</v>
+      </c>
+      <c r="C292">
+        <v>48.8</v>
+      </c>
+      <c r="D292">
+        <v>61</v>
+      </c>
+      <c r="E292">
+        <v>1280</v>
+      </c>
+      <c r="G292">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="293" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A293">
+        <v>39</v>
+      </c>
+      <c r="B293">
+        <v>191</v>
+      </c>
+      <c r="C293">
+        <v>38.9</v>
+      </c>
+      <c r="D293">
+        <v>40</v>
+      </c>
+      <c r="E293">
+        <v>720</v>
+      </c>
+      <c r="G293">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="294" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A294">
+        <v>39</v>
+      </c>
+      <c r="B294">
+        <v>192</v>
+      </c>
+      <c r="C294">
+        <v>36.6</v>
+      </c>
+      <c r="D294">
+        <v>32</v>
+      </c>
+      <c r="E294">
+        <v>480</v>
+      </c>
+      <c r="G294">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="295" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A295">
+        <v>39</v>
+      </c>
+      <c r="B295">
+        <v>193</v>
+      </c>
+      <c r="C295">
+        <v>62.8</v>
+      </c>
+      <c r="D295">
+        <v>142</v>
+      </c>
+      <c r="E295">
+        <v>5570</v>
+      </c>
+      <c r="G295">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="296" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A296">
+        <v>39</v>
+      </c>
+      <c r="B296">
+        <v>194</v>
+      </c>
+      <c r="C296">
+        <v>44.4</v>
+      </c>
+      <c r="D296">
+        <v>76</v>
+      </c>
+      <c r="E296">
+        <v>1650</v>
+      </c>
+      <c r="G296">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="297" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A297">
+        <v>39</v>
+      </c>
+      <c r="B297">
+        <v>195</v>
+      </c>
+      <c r="C297">
+        <v>51.6</v>
+      </c>
+      <c r="D297">
+        <v>75</v>
+      </c>
+      <c r="E297">
+        <v>1620</v>
+      </c>
+      <c r="G297">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="298" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A298">
+        <v>39</v>
+      </c>
+      <c r="B298">
+        <v>196</v>
+      </c>
+      <c r="C298">
+        <v>45.6</v>
+      </c>
+      <c r="D298">
+        <v>44</v>
+      </c>
+      <c r="E298">
+        <v>900</v>
+      </c>
+      <c r="G298">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="299" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A299">
+        <v>39</v>
+      </c>
+      <c r="B299">
+        <v>197</v>
+      </c>
+      <c r="C299">
+        <v>57.5</v>
+      </c>
+      <c r="D299">
+        <v>110</v>
+      </c>
+      <c r="E299">
+        <v>2650</v>
+      </c>
+      <c r="G299">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="300" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A300">
+        <v>39</v>
+      </c>
+      <c r="B300">
+        <v>198</v>
+      </c>
+      <c r="C300">
+        <v>46.1</v>
+      </c>
+      <c r="D300">
+        <v>65</v>
+      </c>
+      <c r="E300">
+        <v>1160</v>
+      </c>
+      <c r="G300">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="301" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A301">
+        <v>39</v>
+      </c>
+      <c r="B301">
+        <v>199</v>
+      </c>
+      <c r="C301">
+        <v>61.9</v>
+      </c>
+      <c r="D301">
+        <v>83</v>
+      </c>
+      <c r="E301">
+        <v>1940</v>
+      </c>
+      <c r="G301">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="302" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A302">
+        <v>39</v>
+      </c>
+      <c r="B302">
+        <v>200</v>
+      </c>
+      <c r="C302">
+        <v>55.6</v>
+      </c>
+      <c r="D302">
+        <v>72</v>
+      </c>
+      <c r="E302">
+        <v>1460</v>
+      </c>
+      <c r="G302">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="303" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A303">
+        <v>39</v>
+      </c>
+      <c r="B303">
+        <v>201</v>
+      </c>
+      <c r="C303">
+        <v>38.200000000000003</v>
+      </c>
+      <c r="D303">
+        <v>44</v>
+      </c>
+      <c r="E303">
+        <v>690</v>
+      </c>
+      <c r="G303">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="304" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A304">
+        <v>39</v>
+      </c>
+      <c r="B304">
+        <v>202</v>
+      </c>
+      <c r="C304">
+        <v>43.8</v>
+      </c>
+      <c r="D304">
+        <v>61</v>
+      </c>
+      <c r="E304">
+        <v>1090</v>
+      </c>
+      <c r="G304">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="305" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A305">
+        <v>39</v>
+      </c>
+      <c r="B305">
+        <v>203</v>
+      </c>
+      <c r="C305">
+        <v>33.5</v>
+      </c>
+      <c r="D305">
+        <v>40</v>
+      </c>
+      <c r="E305">
+        <v>770</v>
+      </c>
+      <c r="G305">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="306" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A306">
+        <v>39</v>
+      </c>
+      <c r="B306">
+        <v>204</v>
+      </c>
+      <c r="C306">
+        <v>44.7</v>
+      </c>
+      <c r="D306">
+        <v>43</v>
+      </c>
+      <c r="E306">
+        <v>680</v>
+      </c>
+      <c r="G306">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="307" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A307">
+        <v>39</v>
+      </c>
+      <c r="B307">
+        <v>205</v>
+      </c>
+      <c r="C307">
+        <v>31.6</v>
+      </c>
+      <c r="D307">
+        <v>20</v>
+      </c>
+      <c r="E307">
+        <v>300</v>
+      </c>
+      <c r="G307">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="308" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A308">
+        <v>39</v>
+      </c>
+      <c r="B308">
+        <v>206</v>
+      </c>
+      <c r="C308">
+        <v>24.7</v>
+      </c>
+      <c r="D308">
+        <v>26</v>
+      </c>
+      <c r="E308">
+        <v>260</v>
+      </c>
+      <c r="G308">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="309" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A309">
+        <v>39</v>
+      </c>
+      <c r="B309">
+        <v>207</v>
+      </c>
+      <c r="C309">
+        <v>48.8</v>
+      </c>
+      <c r="D309">
+        <v>55</v>
+      </c>
+      <c r="E309">
+        <v>960</v>
+      </c>
+      <c r="G309">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="310" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A310">
+        <v>39</v>
+      </c>
+      <c r="B310">
+        <v>208</v>
+      </c>
+      <c r="C310">
+        <v>28.1</v>
+      </c>
+      <c r="D310">
+        <v>28</v>
+      </c>
+      <c r="E310">
+        <v>250</v>
+      </c>
+      <c r="G310">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="311" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A311">
+        <v>39</v>
+      </c>
+      <c r="B311">
+        <v>209</v>
+      </c>
+      <c r="C311">
+        <v>22.5</v>
+      </c>
+      <c r="D311">
+        <v>23</v>
+      </c>
+      <c r="E311">
+        <v>40</v>
+      </c>
+      <c r="G311">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="312" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A312">
+        <v>39</v>
+      </c>
+      <c r="B312">
+        <v>210</v>
+      </c>
+      <c r="C312">
+        <v>52</v>
+      </c>
+      <c r="D312">
+        <v>7.5</v>
+      </c>
+      <c r="E312">
+        <v>4</v>
+      </c>
+      <c r="G312">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="313" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A313">
+        <v>39</v>
+      </c>
+      <c r="B313">
+        <v>211</v>
+      </c>
+      <c r="C313">
+        <v>7.6</v>
+      </c>
+      <c r="D313">
+        <v>8.5</v>
+      </c>
+      <c r="E313">
+        <v>4</v>
+      </c>
+      <c r="G313">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="314" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A314">
+        <v>39</v>
+      </c>
+      <c r="B314">
+        <v>212</v>
+      </c>
+      <c r="C314">
+        <v>54.1</v>
+      </c>
+      <c r="D314">
+        <v>78</v>
+      </c>
+      <c r="E314">
+        <v>1230</v>
+      </c>
+      <c r="G314">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="315" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A315">
+        <v>39</v>
+      </c>
+      <c r="B315">
+        <v>213</v>
+      </c>
+      <c r="C315">
+        <v>59.9</v>
+      </c>
+      <c r="D315">
+        <v>159</v>
+      </c>
+      <c r="E315">
+        <v>5110</v>
+      </c>
+      <c r="G315">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="316" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A316">
+        <v>39</v>
+      </c>
+      <c r="B316">
+        <v>214</v>
+      </c>
+      <c r="C316">
+        <v>14</v>
+      </c>
+      <c r="D316">
+        <v>14.5</v>
+      </c>
+      <c r="E316">
+        <v>60</v>
+      </c>
+      <c r="G316">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="317" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A317">
+        <v>39</v>
+      </c>
+      <c r="B317">
+        <v>215</v>
+      </c>
+      <c r="C317">
+        <v>18.7</v>
+      </c>
+      <c r="D317">
+        <v>22</v>
+      </c>
+      <c r="E317">
+        <v>80</v>
+      </c>
+      <c r="G317">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="318" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A318">
+        <v>39</v>
+      </c>
+      <c r="B318">
+        <v>216</v>
+      </c>
+      <c r="C318">
+        <v>7.5</v>
+      </c>
+      <c r="D318">
+        <v>10</v>
+      </c>
+      <c r="E318">
+        <v>9</v>
+      </c>
+      <c r="G318">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="319" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A319">
+        <v>39</v>
+      </c>
+      <c r="B319">
+        <v>217</v>
+      </c>
+      <c r="C319">
+        <v>35</v>
+      </c>
+      <c r="D319">
+        <v>35</v>
+      </c>
+      <c r="E319">
+        <v>390</v>
+      </c>
+      <c r="G319">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="320" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A320">
+        <v>39</v>
+      </c>
+      <c r="B320">
+        <v>218</v>
+      </c>
+      <c r="C320">
+        <v>7.3</v>
+      </c>
+      <c r="D320">
+        <v>7.5</v>
+      </c>
+      <c r="E320">
+        <v>4</v>
+      </c>
+      <c r="G320">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="321" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A321">
+        <v>39</v>
+      </c>
+      <c r="B321">
+        <v>219</v>
+      </c>
+      <c r="C321">
+        <v>10.5</v>
+      </c>
+      <c r="D321">
+        <v>8.5</v>
+      </c>
+      <c r="E321">
+        <v>11</v>
+      </c>
+      <c r="G321">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="322" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A322">
+        <v>39</v>
+      </c>
+      <c r="B322">
+        <v>220</v>
+      </c>
+      <c r="C322">
+        <v>24.5</v>
+      </c>
+      <c r="D322">
+        <v>18.5</v>
+      </c>
+      <c r="E322">
+        <v>130</v>
+      </c>
+      <c r="G322">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="323" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A323">
+        <v>39</v>
+      </c>
+      <c r="B323">
+        <v>221</v>
+      </c>
+      <c r="C323">
+        <v>15.4</v>
+      </c>
+      <c r="D323">
+        <v>10</v>
+      </c>
+      <c r="E323">
+        <v>11</v>
+      </c>
+      <c r="G323">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="324" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A324">
+        <v>39</v>
+      </c>
+      <c r="B324">
+        <v>222</v>
+      </c>
+      <c r="C324">
+        <v>16.600000000000001</v>
+      </c>
+      <c r="D324">
+        <v>13.5</v>
+      </c>
+      <c r="E324">
+        <v>50</v>
+      </c>
+      <c r="G324">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="325" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A325">
+        <v>39</v>
+      </c>
+      <c r="B325">
+        <v>223</v>
+      </c>
+      <c r="C325">
+        <v>21.2</v>
+      </c>
+      <c r="D325">
+        <v>20</v>
+      </c>
+      <c r="E325">
+        <v>105</v>
+      </c>
+      <c r="G325">
+        <f t="shared" si="6"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="326" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A326">
+        <v>39</v>
+      </c>
+      <c r="B326">
+        <v>224</v>
+      </c>
+      <c r="C326">
+        <v>15.2</v>
+      </c>
+      <c r="D326">
+        <v>11.4</v>
+      </c>
+      <c r="E326">
+        <v>55</v>
+      </c>
+      <c r="G326">
+        <f t="shared" ref="G326:G328" si="7">(F326*100/E326)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="327" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A327">
+        <v>39</v>
+      </c>
+      <c r="B327">
+        <v>225</v>
+      </c>
+      <c r="C327">
+        <v>27.1</v>
+      </c>
+      <c r="D327">
+        <v>17</v>
+      </c>
+      <c r="E327">
+        <v>90</v>
+      </c>
+      <c r="G327">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="328" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A328">
+        <v>39</v>
+      </c>
+      <c r="B328">
+        <v>226</v>
+      </c>
+      <c r="C328">
+        <v>9.9</v>
+      </c>
+      <c r="D328">
+        <v>7.8</v>
+      </c>
+      <c r="E328">
+        <v>7</v>
+      </c>
+      <c r="G328">
+        <f t="shared" si="7"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="329" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A329">
+        <v>39</v>
+      </c>
+      <c r="B329">
+        <v>227</v>
+      </c>
+      <c r="C329">
+        <v>6.3</v>
+      </c>
+      <c r="D329">
+        <v>7</v>
+      </c>
+      <c r="E329">
+        <v>4</v>
+      </c>
+      <c r="G329">
+        <f t="shared" ref="G308:G372" si="8">(F329*100/E329)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="330" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A330">
+        <v>39</v>
+      </c>
+      <c r="B330">
+        <v>228</v>
+      </c>
+      <c r="C330">
+        <v>73</v>
+      </c>
+      <c r="D330">
+        <v>210</v>
+      </c>
+      <c r="H330" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="331" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A331">
+        <v>40</v>
+      </c>
+      <c r="B331">
+        <v>1</v>
+      </c>
+      <c r="C331">
+        <v>13.64</v>
+      </c>
+      <c r="D331">
+        <v>11.5</v>
+      </c>
+      <c r="E331">
+        <v>16</v>
+      </c>
+      <c r="G331">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="332" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A332">
+        <v>40</v>
+      </c>
+      <c r="B332">
+        <v>2</v>
+      </c>
+      <c r="C332">
+        <v>19.440000000000001</v>
+      </c>
+      <c r="D332">
+        <v>13</v>
+      </c>
+      <c r="E332">
+        <v>70</v>
+      </c>
+      <c r="G332">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="333" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A333">
+        <v>40</v>
+      </c>
+      <c r="B333">
+        <v>3</v>
+      </c>
+      <c r="C333">
+        <v>30.42</v>
+      </c>
+      <c r="D333">
+        <v>23.5</v>
+      </c>
+      <c r="E333">
+        <v>110</v>
+      </c>
+      <c r="G333">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="334" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A334">
+        <v>40</v>
+      </c>
+      <c r="B334">
+        <v>4</v>
+      </c>
+      <c r="C334">
+        <v>26.21</v>
+      </c>
+      <c r="D334">
+        <v>23.5</v>
+      </c>
+      <c r="E334">
+        <v>175</v>
+      </c>
+      <c r="G334">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="335" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A335">
+        <v>40</v>
+      </c>
+      <c r="B335">
+        <v>5</v>
+      </c>
+      <c r="C335">
+        <v>12.6</v>
+      </c>
+      <c r="D335">
+        <v>10.5</v>
+      </c>
+      <c r="E335">
+        <v>15</v>
+      </c>
+      <c r="G335">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="336" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A336">
+        <v>40</v>
+      </c>
+      <c r="B336">
+        <v>6</v>
+      </c>
+      <c r="C336">
+        <v>22.09</v>
+      </c>
+      <c r="D336">
+        <v>18</v>
+      </c>
+      <c r="E336">
+        <v>50</v>
+      </c>
+      <c r="G336">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="337" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A337">
+        <v>40</v>
+      </c>
+      <c r="B337">
+        <v>7</v>
+      </c>
+      <c r="C337">
+        <v>10.98</v>
+      </c>
+      <c r="D337">
+        <v>12</v>
+      </c>
+      <c r="E337">
+        <v>40</v>
+      </c>
+      <c r="G337">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="338" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A338">
+        <v>40</v>
+      </c>
+      <c r="B338">
+        <v>8</v>
+      </c>
+      <c r="C338">
+        <v>9.73</v>
+      </c>
+      <c r="D338">
+        <v>9</v>
+      </c>
+      <c r="E338">
+        <v>8</v>
+      </c>
+      <c r="G338">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="339" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A339">
+        <v>40</v>
+      </c>
+      <c r="B339">
+        <v>9</v>
+      </c>
+      <c r="C339">
+        <v>11.91</v>
+      </c>
+      <c r="D339">
+        <v>10.3</v>
+      </c>
+      <c r="E339">
+        <v>13</v>
+      </c>
+      <c r="G339">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="340" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A340">
+        <v>40</v>
+      </c>
+      <c r="B340">
+        <v>10</v>
+      </c>
+      <c r="C340">
+        <v>35.49</v>
+      </c>
+      <c r="D340">
+        <v>27</v>
+      </c>
+      <c r="E340">
+        <v>325</v>
+      </c>
+      <c r="G340">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="341" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A341">
+        <v>40</v>
+      </c>
+      <c r="B341">
+        <v>11</v>
+      </c>
+      <c r="C341">
+        <v>10.62</v>
+      </c>
+      <c r="D341">
+        <v>13.7</v>
+      </c>
+      <c r="E341">
+        <v>25</v>
+      </c>
+      <c r="G341">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="342" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A342">
+        <v>40</v>
+      </c>
+      <c r="B342">
+        <v>12</v>
+      </c>
+      <c r="C342">
+        <v>21.21</v>
+      </c>
+      <c r="D342">
+        <v>19.5</v>
+      </c>
+      <c r="E342">
+        <v>125</v>
+      </c>
+      <c r="G342">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="343" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A343">
+        <v>40</v>
+      </c>
+      <c r="B343">
+        <v>13</v>
+      </c>
+      <c r="C343">
+        <v>22.28</v>
+      </c>
+      <c r="D343">
+        <v>19.7</v>
+      </c>
+      <c r="E343">
+        <v>150</v>
+      </c>
+      <c r="G343">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="344" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A344">
+        <v>40</v>
+      </c>
+      <c r="B344">
+        <v>14</v>
+      </c>
+      <c r="C344">
+        <v>17.52</v>
+      </c>
+      <c r="D344">
+        <v>10.5</v>
+      </c>
+      <c r="E344">
+        <v>80</v>
+      </c>
+      <c r="G344">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="345" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A345">
+        <v>40</v>
+      </c>
+      <c r="B345">
+        <v>15</v>
+      </c>
+      <c r="C345">
+        <v>6</v>
+      </c>
+      <c r="D345">
+        <v>7.2</v>
+      </c>
+      <c r="E345">
+        <v>7</v>
+      </c>
+      <c r="G345">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="346" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A346">
+        <v>40</v>
+      </c>
+      <c r="B346">
+        <v>16</v>
+      </c>
+      <c r="C346">
+        <v>14.24</v>
+      </c>
+      <c r="D346">
+        <v>14.3</v>
+      </c>
+      <c r="E346">
+        <v>60</v>
+      </c>
+      <c r="G346">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="347" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A347">
+        <v>40</v>
+      </c>
+      <c r="B347">
+        <v>17</v>
+      </c>
+      <c r="C347">
+        <v>18.22</v>
+      </c>
+      <c r="D347">
+        <v>18</v>
+      </c>
+      <c r="E347">
+        <v>100</v>
+      </c>
+      <c r="G347">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="348" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A348">
+        <v>40</v>
+      </c>
+      <c r="B348">
+        <v>18</v>
+      </c>
+      <c r="C348">
+        <v>14</v>
+      </c>
+      <c r="D348">
+        <v>18.7</v>
+      </c>
+      <c r="E348">
+        <v>80</v>
+      </c>
+      <c r="G348">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="349" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A349">
+        <v>40</v>
+      </c>
+      <c r="B349">
+        <v>19</v>
+      </c>
+      <c r="C349">
+        <v>11.48</v>
+      </c>
+      <c r="D349">
+        <v>10</v>
+      </c>
+      <c r="E349">
+        <v>45</v>
+      </c>
+      <c r="G349">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="350" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A350">
+        <v>40</v>
+      </c>
+      <c r="B350">
+        <v>20</v>
+      </c>
+      <c r="C350">
+        <v>7.83</v>
+      </c>
+      <c r="D350">
+        <v>8</v>
+      </c>
+      <c r="E350">
+        <v>8</v>
+      </c>
+      <c r="G350">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="351" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A351">
+        <v>40</v>
+      </c>
+      <c r="B351">
+        <v>21</v>
+      </c>
+      <c r="C351">
+        <v>17.3</v>
+      </c>
+      <c r="D351">
+        <v>12.7</v>
+      </c>
+      <c r="E351">
+        <v>70</v>
+      </c>
+      <c r="G351">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="352" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A352">
+        <v>40</v>
+      </c>
+      <c r="B352">
+        <v>22</v>
+      </c>
+      <c r="C352">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D352">
+        <v>14</v>
+      </c>
+      <c r="E352">
+        <v>90</v>
+      </c>
+      <c r="G352">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="353" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A353">
+        <v>40</v>
+      </c>
+      <c r="B353">
+        <v>23</v>
+      </c>
+      <c r="C353">
+        <v>23.46</v>
+      </c>
+      <c r="D353">
+        <v>17</v>
+      </c>
+      <c r="E353">
+        <v>80</v>
+      </c>
+      <c r="G353">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="354" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A354">
+        <v>40</v>
+      </c>
+      <c r="B354">
+        <v>24</v>
+      </c>
+      <c r="C354">
+        <v>12.16</v>
+      </c>
+      <c r="D354">
+        <v>11.5</v>
+      </c>
+      <c r="E354">
+        <v>17</v>
+      </c>
+      <c r="G354">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="355" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A355">
+        <v>40</v>
+      </c>
+      <c r="B355">
+        <v>25</v>
+      </c>
+      <c r="C355">
+        <v>9</v>
+      </c>
+      <c r="D355">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E355">
+        <v>25</v>
+      </c>
+      <c r="G355">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="356" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A356">
+        <v>40</v>
+      </c>
+      <c r="B356">
+        <v>26</v>
+      </c>
+      <c r="C356">
+        <v>17.47</v>
+      </c>
+      <c r="D356">
+        <v>15.7</v>
+      </c>
+      <c r="E356">
+        <v>70</v>
+      </c>
+      <c r="G356">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="357" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A357">
+        <v>40</v>
+      </c>
+      <c r="B357">
+        <v>27</v>
+      </c>
+      <c r="C357">
+        <v>16.649999999999999</v>
+      </c>
+      <c r="D357">
+        <v>16.5</v>
+      </c>
+      <c r="E357">
+        <v>80</v>
+      </c>
+      <c r="G357">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="358" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A358">
+        <v>40</v>
+      </c>
+      <c r="B358">
+        <v>28</v>
+      </c>
+      <c r="C358">
+        <v>10.62</v>
+      </c>
+      <c r="D358">
+        <v>10</v>
+      </c>
+      <c r="E358">
+        <v>18</v>
+      </c>
+      <c r="G358">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="359" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A359">
+        <v>40</v>
+      </c>
+      <c r="B359">
+        <v>29</v>
+      </c>
+      <c r="C359">
+        <v>10.9</v>
+      </c>
+      <c r="D359">
+        <v>14.3</v>
+      </c>
+      <c r="E359">
+        <v>22</v>
+      </c>
+      <c r="G359">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="360" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A360">
+        <v>40</v>
+      </c>
+      <c r="B360">
+        <v>30</v>
+      </c>
+      <c r="C360">
+        <v>19.8</v>
+      </c>
+      <c r="D360">
+        <v>15</v>
+      </c>
+      <c r="E360">
+        <v>80</v>
+      </c>
+      <c r="G360">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="361" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A361">
+        <v>40</v>
+      </c>
+      <c r="B361">
+        <v>31</v>
+      </c>
+      <c r="C361">
+        <v>23</v>
+      </c>
+      <c r="D361">
+        <v>24.5</v>
+      </c>
+      <c r="E361">
+        <v>150</v>
+      </c>
+      <c r="G361">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="362" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A362">
+        <v>40</v>
+      </c>
+      <c r="B362">
+        <v>32</v>
+      </c>
+      <c r="C362">
+        <v>16.5</v>
+      </c>
+      <c r="D362">
+        <v>12.5</v>
+      </c>
+      <c r="E362">
+        <v>70</v>
+      </c>
+      <c r="G362">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="363" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A363">
+        <v>40</v>
+      </c>
+      <c r="B363">
+        <v>33</v>
+      </c>
+      <c r="C363">
+        <v>12.91</v>
+      </c>
+      <c r="D363">
+        <v>10.5</v>
+      </c>
+      <c r="E363">
+        <v>22</v>
+      </c>
+      <c r="G363">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="364" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A364">
+        <v>40</v>
+      </c>
+      <c r="B364">
+        <v>34</v>
+      </c>
+      <c r="C364">
+        <v>4.82</v>
+      </c>
+      <c r="D364">
+        <v>6.3</v>
+      </c>
+      <c r="E364">
+        <v>12</v>
+      </c>
+      <c r="G364">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="365" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A365">
+        <v>40</v>
+      </c>
+      <c r="B365">
+        <v>35</v>
+      </c>
+      <c r="C365">
+        <v>9.1</v>
+      </c>
+      <c r="D365">
+        <v>9</v>
+      </c>
+      <c r="E365">
+        <v>15</v>
+      </c>
+      <c r="G365">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="366" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A366">
+        <v>40</v>
+      </c>
+      <c r="B366">
+        <v>36</v>
+      </c>
+      <c r="C366">
+        <v>48.5</v>
+      </c>
+      <c r="D366">
+        <v>43</v>
+      </c>
+      <c r="E366">
+        <v>1040</v>
+      </c>
+      <c r="G366">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="367" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A367">
+        <v>40</v>
+      </c>
+      <c r="B367">
+        <v>37</v>
+      </c>
+      <c r="C367">
+        <v>26.16</v>
+      </c>
+      <c r="D367">
+        <v>15.7</v>
+      </c>
+      <c r="E367">
+        <v>120</v>
+      </c>
+      <c r="G367">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="368" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A368">
+        <v>40</v>
+      </c>
+      <c r="B368">
+        <v>38</v>
+      </c>
+      <c r="C368">
+        <v>21.18</v>
+      </c>
+      <c r="D368">
+        <v>17.2</v>
+      </c>
+      <c r="E368">
+        <v>90</v>
+      </c>
+      <c r="G368">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="369" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A369">
+        <v>40</v>
+      </c>
+      <c r="B369">
+        <v>39</v>
+      </c>
+      <c r="C369">
+        <v>14.24</v>
+      </c>
+      <c r="D369">
+        <v>12.5</v>
+      </c>
+      <c r="E369">
+        <v>60</v>
+      </c>
+      <c r="G369">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="370" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A370">
+        <v>40</v>
+      </c>
+      <c r="B370">
+        <v>40</v>
+      </c>
+      <c r="C370">
+        <v>8.4</v>
+      </c>
+      <c r="D370">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E370">
+        <v>12</v>
+      </c>
+      <c r="G370">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="371" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A371">
+        <v>40</v>
+      </c>
+      <c r="B371">
+        <v>41</v>
+      </c>
+      <c r="C371">
+        <v>27.8</v>
+      </c>
+      <c r="D371">
+        <v>28</v>
+      </c>
+      <c r="E371">
+        <v>175</v>
+      </c>
+      <c r="G371">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="372" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A372">
+        <v>40</v>
+      </c>
+      <c r="B372">
+        <v>42</v>
+      </c>
+      <c r="C372">
+        <v>22.4</v>
+      </c>
+      <c r="D372">
+        <v>21.5</v>
+      </c>
+      <c r="E372">
+        <v>140</v>
+      </c>
+      <c r="G372">
+        <f t="shared" si="8"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="373" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A373">
+        <v>40</v>
+      </c>
+      <c r="B373">
+        <v>43</v>
+      </c>
+      <c r="C373">
+        <v>16.3</v>
+      </c>
+      <c r="D373">
+        <v>10.8</v>
+      </c>
+      <c r="E373">
+        <v>30</v>
+      </c>
+      <c r="G373">
+        <f t="shared" ref="G373:G436" si="9">(F373*100/E373)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="374" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A374">
+        <v>40</v>
+      </c>
+      <c r="B374">
+        <v>44</v>
+      </c>
+      <c r="C374">
+        <v>23.6</v>
+      </c>
+      <c r="D374">
+        <v>21.3</v>
+      </c>
+      <c r="E374">
+        <v>160</v>
+      </c>
+      <c r="G374">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="375" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A375">
+        <v>40</v>
+      </c>
+      <c r="B375">
+        <v>45</v>
+      </c>
+      <c r="C375">
+        <v>23.8</v>
+      </c>
+      <c r="D375">
+        <v>23.5</v>
+      </c>
+      <c r="E375">
+        <v>190</v>
+      </c>
+      <c r="G375">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="376" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A376">
+        <v>40</v>
+      </c>
+      <c r="B376">
+        <v>46</v>
+      </c>
+      <c r="C376">
+        <v>15.07</v>
+      </c>
+      <c r="D376">
+        <v>13.4</v>
+      </c>
+      <c r="E376">
+        <v>60</v>
+      </c>
+      <c r="G376">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="377" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A377">
+        <v>40</v>
+      </c>
+      <c r="B377">
+        <v>47</v>
+      </c>
+      <c r="C377">
+        <v>19.7</v>
+      </c>
+      <c r="D377">
+        <v>13.7</v>
+      </c>
+      <c r="E377">
+        <v>80</v>
+      </c>
+      <c r="G377">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="378" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A378">
+        <v>40</v>
+      </c>
+      <c r="B378">
+        <v>48</v>
+      </c>
+      <c r="C378">
+        <v>11.75</v>
+      </c>
+      <c r="D378">
+        <v>14.5</v>
+      </c>
+      <c r="E378">
+        <v>55</v>
+      </c>
+      <c r="G378">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="379" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A379">
+        <v>40</v>
+      </c>
+      <c r="B379">
+        <v>49</v>
+      </c>
+      <c r="C379">
+        <v>15.83</v>
+      </c>
+      <c r="D379">
+        <v>17.8</v>
+      </c>
+      <c r="E379">
+        <v>90</v>
+      </c>
+      <c r="G379">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="380" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A380">
+        <v>40</v>
+      </c>
+      <c r="B380">
+        <v>50</v>
+      </c>
+      <c r="C380">
+        <v>8.6</v>
+      </c>
+      <c r="D380">
+        <v>10</v>
+      </c>
+      <c r="E380">
+        <v>17</v>
+      </c>
+      <c r="G380">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="381" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A381">
+        <v>40</v>
+      </c>
+      <c r="B381">
+        <v>51</v>
+      </c>
+      <c r="C381">
+        <v>13.5</v>
+      </c>
+      <c r="D381">
+        <v>13.2</v>
+      </c>
+      <c r="E381">
+        <v>50</v>
+      </c>
+      <c r="G381">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="382" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A382">
+        <v>40</v>
+      </c>
+      <c r="B382">
+        <v>52</v>
+      </c>
+      <c r="C382">
+        <v>7.2</v>
+      </c>
+      <c r="D382">
+        <v>9.6999999999999993</v>
+      </c>
+      <c r="E382">
+        <v>14</v>
+      </c>
+      <c r="G382">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="383" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A383">
+        <v>40</v>
+      </c>
+      <c r="B383">
+        <v>53</v>
+      </c>
+      <c r="C383">
+        <v>9.4</v>
+      </c>
+      <c r="D383">
+        <v>13.6</v>
+      </c>
+      <c r="E383">
+        <v>24</v>
+      </c>
+      <c r="G383">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="384" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A384">
+        <v>40</v>
+      </c>
+      <c r="B384">
+        <v>54</v>
+      </c>
+      <c r="C384">
+        <v>12.77</v>
+      </c>
+      <c r="D384">
+        <v>10.3</v>
+      </c>
+      <c r="E384">
+        <v>16</v>
+      </c>
+      <c r="G384">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="385" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A385">
+        <v>40</v>
+      </c>
+      <c r="B385">
+        <v>55</v>
+      </c>
+      <c r="C385">
+        <v>9.4</v>
+      </c>
+      <c r="D385">
+        <v>7</v>
+      </c>
+      <c r="E385">
+        <v>10</v>
+      </c>
+      <c r="G385">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="386" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A386">
+        <v>40</v>
+      </c>
+      <c r="B386">
+        <v>56</v>
+      </c>
+      <c r="C386">
+        <v>10.82</v>
+      </c>
+      <c r="D386">
+        <v>13</v>
+      </c>
+      <c r="E386">
+        <v>18</v>
+      </c>
+      <c r="G386">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="387" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A387">
+        <v>40</v>
+      </c>
+      <c r="B387">
+        <v>57</v>
+      </c>
+      <c r="C387">
+        <v>12.14</v>
+      </c>
+      <c r="D387">
+        <v>13.5</v>
+      </c>
+      <c r="E387">
+        <v>30</v>
+      </c>
+      <c r="G387">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="388" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A388">
+        <v>40</v>
+      </c>
+      <c r="B388">
+        <v>58</v>
+      </c>
+      <c r="C388">
+        <v>7.9</v>
+      </c>
+      <c r="D388">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="E388">
+        <v>7</v>
+      </c>
+      <c r="G388">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="389" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A389">
+        <v>40</v>
+      </c>
+      <c r="B389">
+        <v>59</v>
+      </c>
+      <c r="C389">
+        <v>7.7</v>
+      </c>
+      <c r="D389">
+        <v>8.5</v>
+      </c>
+      <c r="E389">
+        <v>8</v>
+      </c>
+      <c r="G389">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="390" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A390">
+        <v>40</v>
+      </c>
+      <c r="B390">
+        <v>60</v>
+      </c>
+      <c r="C390">
+        <v>6.71</v>
+      </c>
+      <c r="D390">
+        <v>7.2</v>
+      </c>
+      <c r="E390">
+        <v>6</v>
+      </c>
+      <c r="G390">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="391" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A391">
+        <v>40</v>
+      </c>
+      <c r="B391">
+        <v>61</v>
+      </c>
+      <c r="C391">
+        <v>7.8</v>
+      </c>
+      <c r="D391">
+        <v>10.3</v>
+      </c>
+      <c r="E391">
+        <v>12</v>
+      </c>
+      <c r="G391">
+        <f>(F391*100/E391)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="392" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A392">
+        <v>40</v>
+      </c>
+      <c r="B392">
+        <v>62</v>
+      </c>
+      <c r="C392">
+        <v>14.5</v>
+      </c>
+      <c r="D392">
+        <v>9</v>
+      </c>
+      <c r="E392">
+        <v>21</v>
+      </c>
+      <c r="G392">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="393" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A393">
+        <v>40</v>
+      </c>
+      <c r="B393">
+        <v>63</v>
+      </c>
+      <c r="C393">
+        <v>8.1199999999999992</v>
+      </c>
+      <c r="D393">
+        <v>8.1</v>
+      </c>
+      <c r="E393">
+        <v>12</v>
+      </c>
+      <c r="G393">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="394" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A394">
+        <v>40</v>
+      </c>
+      <c r="B394">
+        <v>64</v>
+      </c>
+      <c r="C394">
+        <v>20.350000000000001</v>
+      </c>
+      <c r="D394">
+        <v>19.5</v>
+      </c>
+      <c r="E394">
+        <v>100</v>
+      </c>
+      <c r="G394">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="395" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A395">
+        <v>40</v>
+      </c>
+      <c r="B395">
+        <v>65</v>
+      </c>
+      <c r="C395">
+        <v>40.1</v>
+      </c>
+      <c r="D395">
+        <v>41</v>
+      </c>
+      <c r="E395">
+        <v>590</v>
+      </c>
+      <c r="G395">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="396" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A396">
+        <v>40</v>
+      </c>
+      <c r="B396">
+        <v>66</v>
+      </c>
+      <c r="C396">
+        <v>52.26</v>
+      </c>
+      <c r="D396">
+        <v>47</v>
+      </c>
+      <c r="E396">
+        <v>950</v>
+      </c>
+      <c r="G396">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="397" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A397">
+        <v>40</v>
+      </c>
+      <c r="B397">
+        <v>67</v>
+      </c>
+      <c r="C397">
+        <v>56</v>
+      </c>
+      <c r="D397">
+        <v>116</v>
+      </c>
+      <c r="E397">
+        <v>2910</v>
+      </c>
+      <c r="G397">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="398" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A398">
+        <v>40</v>
+      </c>
+      <c r="B398">
+        <v>68</v>
+      </c>
+      <c r="C398">
+        <v>10.67</v>
+      </c>
+      <c r="D398">
+        <v>12.2</v>
+      </c>
+      <c r="E398">
+        <v>29</v>
+      </c>
+      <c r="G398">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="399" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A399">
+        <v>40</v>
+      </c>
+      <c r="B399">
+        <v>69</v>
+      </c>
+      <c r="C399">
+        <v>7.6</v>
+      </c>
+      <c r="D399">
+        <v>5.6</v>
+      </c>
+      <c r="E399">
+        <v>6</v>
+      </c>
+      <c r="G399">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H399" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="400" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A400">
+        <v>40</v>
+      </c>
+      <c r="B400">
+        <v>70</v>
+      </c>
+      <c r="C400">
+        <v>7.6</v>
+      </c>
+      <c r="D400">
+        <v>5.6</v>
+      </c>
+      <c r="E400">
+        <v>6</v>
+      </c>
+      <c r="G400">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H400" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="401" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A401">
+        <v>40</v>
+      </c>
+      <c r="B401">
+        <v>71</v>
+      </c>
+      <c r="C401">
+        <v>7.69</v>
+      </c>
+      <c r="D401">
+        <v>4.5999999999999996</v>
+      </c>
+      <c r="E401">
+        <v>3</v>
+      </c>
+      <c r="G401">
+        <f>(F401*100/E401)/100</f>
+        <v>0</v>
+      </c>
+      <c r="H401" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="402" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A402">
+        <v>40</v>
+      </c>
+      <c r="B402">
+        <v>72</v>
+      </c>
+      <c r="C402">
+        <v>5.21</v>
+      </c>
+      <c r="D402">
+        <v>6.4</v>
+      </c>
+      <c r="E402">
+        <v>4.5</v>
+      </c>
+      <c r="G402">
+        <f>(F402*100/E402)/100</f>
+        <v>0</v>
+      </c>
+      <c r="H402" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="403" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A403">
+        <v>40</v>
+      </c>
+      <c r="B403">
+        <v>73</v>
+      </c>
+      <c r="C403">
+        <v>6.8</v>
+      </c>
+      <c r="D403">
+        <v>4.4000000000000004</v>
+      </c>
+      <c r="E403">
+        <v>8.5</v>
+      </c>
+      <c r="G403">
+        <f>(F403*100/E403)/100</f>
+        <v>0</v>
+      </c>
+      <c r="H403" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="404" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A404">
+        <v>40</v>
+      </c>
+      <c r="B404">
+        <v>74</v>
+      </c>
+      <c r="C404">
+        <v>4.49</v>
+      </c>
+      <c r="D404">
+        <v>4.3</v>
+      </c>
+      <c r="E404">
+        <v>2</v>
+      </c>
+      <c r="G404">
+        <f>(F404*100/E404)/100</f>
+        <v>0</v>
+      </c>
+      <c r="H404" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="405" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A405">
+        <v>40</v>
+      </c>
+      <c r="B405">
+        <v>75</v>
+      </c>
+      <c r="C405">
+        <v>10.97</v>
+      </c>
+      <c r="D405">
+        <v>5</v>
+      </c>
+      <c r="E405">
+        <v>20</v>
+      </c>
+      <c r="G405">
+        <f>(F405*100/E405)/100</f>
+        <v>0</v>
+      </c>
+      <c r="H405" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="406" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A406">
+        <v>40</v>
+      </c>
+      <c r="B406">
+        <v>76</v>
+      </c>
+      <c r="C406">
+        <v>9.76</v>
+      </c>
+      <c r="D406">
+        <v>4</v>
+      </c>
+      <c r="E406">
+        <v>16</v>
+      </c>
+      <c r="G406">
+        <f>(F406*100/E406)/100</f>
+        <v>0</v>
+      </c>
+      <c r="H406" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="407" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A407">
+        <v>40</v>
+      </c>
+      <c r="B407">
+        <v>77</v>
+      </c>
+      <c r="C407">
+        <v>15.17</v>
+      </c>
+      <c r="D407">
+        <v>5.0999999999999996</v>
+      </c>
+      <c r="E407">
+        <v>40</v>
+      </c>
+      <c r="G407">
+        <f>(F407*100/E407)/100</f>
+        <v>0</v>
+      </c>
+      <c r="H407" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="408" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A408">
+        <v>40</v>
+      </c>
+      <c r="B408">
+        <v>78</v>
+      </c>
+      <c r="C408">
+        <v>22.8</v>
+      </c>
+      <c r="D408">
+        <v>6.9</v>
+      </c>
+      <c r="E408">
+        <v>120</v>
+      </c>
+      <c r="G408">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H408" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="409" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A409">
+        <v>40</v>
+      </c>
+      <c r="B409">
+        <v>79</v>
+      </c>
+      <c r="C409">
+        <v>14.6</v>
+      </c>
+      <c r="D409">
+        <v>8.3000000000000007</v>
+      </c>
+      <c r="E409">
+        <v>50</v>
+      </c>
+      <c r="G409">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H409" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="410" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A410">
+        <v>40</v>
+      </c>
+      <c r="B410">
+        <v>80</v>
+      </c>
+      <c r="C410">
+        <v>16.32</v>
+      </c>
+      <c r="D410">
+        <v>7.9</v>
+      </c>
+      <c r="E410">
+        <v>70</v>
+      </c>
+      <c r="G410">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H410" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="411" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A411">
+        <v>40</v>
+      </c>
+      <c r="B411">
+        <v>81</v>
+      </c>
+      <c r="C411">
+        <v>20.75</v>
+      </c>
+      <c r="D411">
+        <v>6.5</v>
+      </c>
+      <c r="E411">
+        <v>120</v>
+      </c>
+      <c r="G411">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+      <c r="H411" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="412" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A412">
+        <v>40</v>
+      </c>
+      <c r="B412">
+        <v>82</v>
+      </c>
+      <c r="C412">
+        <v>27.4</v>
+      </c>
+      <c r="D412">
+        <v>19</v>
+      </c>
+      <c r="E412">
+        <v>170</v>
+      </c>
+      <c r="G412">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="413" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A413">
+        <v>40</v>
+      </c>
+      <c r="B413">
+        <v>83</v>
+      </c>
+      <c r="C413">
+        <v>39.31</v>
+      </c>
+      <c r="D413">
+        <v>41</v>
+      </c>
+      <c r="E413">
+        <v>550</v>
+      </c>
+      <c r="G413">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="414" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A414">
+        <v>40</v>
+      </c>
+      <c r="B414">
+        <v>84</v>
+      </c>
+      <c r="C414">
+        <v>48.2</v>
+      </c>
+      <c r="D414">
+        <v>46</v>
+      </c>
+      <c r="E414">
+        <v>930</v>
+      </c>
+      <c r="G414">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="415" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A415">
+        <v>40</v>
+      </c>
+      <c r="B415">
+        <v>85</v>
+      </c>
+      <c r="C415">
+        <v>53.78</v>
+      </c>
+      <c r="D415">
+        <v>49</v>
+      </c>
+      <c r="E415">
+        <v>1030</v>
+      </c>
+      <c r="G415">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="416" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A416">
+        <v>40</v>
+      </c>
+      <c r="B416">
+        <v>86</v>
+      </c>
+      <c r="C416">
+        <v>53.27</v>
+      </c>
+      <c r="D416">
+        <v>95</v>
+      </c>
+      <c r="E416">
+        <v>2860</v>
+      </c>
+      <c r="G416">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="417" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A417">
+        <v>40</v>
+      </c>
+      <c r="B417">
+        <v>87</v>
+      </c>
+      <c r="C417">
+        <v>5.8</v>
+      </c>
+      <c r="D417">
+        <v>7</v>
+      </c>
+      <c r="E417">
+        <v>6</v>
+      </c>
+      <c r="G417">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="418" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A418">
+        <v>40</v>
+      </c>
+      <c r="B418">
+        <v>88</v>
+      </c>
+      <c r="C418">
+        <v>12.4</v>
+      </c>
+      <c r="D418">
+        <v>12.5</v>
+      </c>
+      <c r="E418">
+        <v>25</v>
+      </c>
+      <c r="G418">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="419" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A419">
+        <v>40</v>
+      </c>
+      <c r="B419">
+        <v>89</v>
+      </c>
+      <c r="C419">
+        <v>21.84</v>
+      </c>
+      <c r="D419">
+        <v>28</v>
+      </c>
+      <c r="E419">
+        <v>220</v>
+      </c>
+      <c r="G419">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="420" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A420">
+        <v>40</v>
+      </c>
+      <c r="B420">
+        <v>90</v>
+      </c>
+      <c r="C420">
+        <v>6.87</v>
+      </c>
+      <c r="D420">
+        <v>10.199999999999999</v>
+      </c>
+      <c r="E420">
+        <v>9</v>
+      </c>
+      <c r="G420">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="421" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A421">
+        <v>40</v>
+      </c>
+      <c r="B421">
+        <v>91</v>
+      </c>
+      <c r="C421">
+        <v>3.65</v>
+      </c>
+      <c r="D421">
+        <v>5.5</v>
+      </c>
+      <c r="E421">
+        <v>2</v>
+      </c>
+      <c r="G421">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="422" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A422">
+        <v>40</v>
+      </c>
+      <c r="B422">
+        <v>92</v>
+      </c>
+      <c r="C422">
+        <v>5</v>
+      </c>
+      <c r="D422">
+        <v>7.6</v>
+      </c>
+      <c r="E422">
+        <v>4</v>
+      </c>
+      <c r="G422">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="423" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A423">
+        <v>40</v>
+      </c>
+      <c r="B423">
+        <v>93</v>
+      </c>
+      <c r="C423">
+        <v>23.5</v>
+      </c>
+      <c r="D423">
+        <v>27.5</v>
+      </c>
+      <c r="E423">
+        <v>180</v>
+      </c>
+      <c r="G423">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="424" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A424">
+        <v>40</v>
+      </c>
+      <c r="B424">
+        <v>94</v>
+      </c>
+      <c r="C424">
+        <v>17</v>
+      </c>
+      <c r="D424">
+        <v>15.5</v>
+      </c>
+      <c r="E424">
+        <v>60</v>
+      </c>
+      <c r="G424">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="425" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A425">
+        <v>40</v>
+      </c>
+      <c r="B425">
+        <v>95</v>
+      </c>
+      <c r="C425">
+        <v>17</v>
+      </c>
+      <c r="D425">
+        <v>14.5</v>
+      </c>
+      <c r="E425">
+        <v>60</v>
+      </c>
+      <c r="G425">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="426" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A426">
+        <v>40</v>
+      </c>
+      <c r="B426">
+        <v>96</v>
+      </c>
+      <c r="C426">
+        <v>27.7</v>
+      </c>
+      <c r="D426">
+        <v>26</v>
+      </c>
+      <c r="E426">
+        <v>200</v>
+      </c>
+      <c r="G426">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="427" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A427">
+        <v>40</v>
+      </c>
+      <c r="B427">
+        <v>97</v>
+      </c>
+      <c r="C427">
+        <v>27.7</v>
+      </c>
+      <c r="D427">
+        <v>23</v>
+      </c>
+      <c r="E427">
+        <v>210</v>
+      </c>
+      <c r="G427">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="428" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A428">
+        <v>40</v>
+      </c>
+      <c r="B428">
+        <v>98</v>
+      </c>
+      <c r="C428">
+        <v>35.35</v>
+      </c>
+      <c r="D428">
+        <v>36</v>
+      </c>
+      <c r="E428">
+        <v>330</v>
+      </c>
+      <c r="G428">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="429" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A429">
+        <v>40</v>
+      </c>
+      <c r="B429">
+        <v>99</v>
+      </c>
+      <c r="C429">
+        <v>24.04</v>
+      </c>
+      <c r="D429">
+        <v>20</v>
+      </c>
+      <c r="E429">
+        <v>190</v>
+      </c>
+      <c r="G429">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="430" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A430">
+        <v>40</v>
+      </c>
+      <c r="B430">
+        <v>100</v>
+      </c>
+      <c r="C430">
+        <v>24.2</v>
+      </c>
+      <c r="D430">
+        <v>23.3</v>
+      </c>
+      <c r="E430">
+        <v>70</v>
+      </c>
+      <c r="G430">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="431" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A431">
+        <v>40</v>
+      </c>
+      <c r="B431">
+        <v>101</v>
+      </c>
+      <c r="C431">
+        <v>17.39</v>
+      </c>
+      <c r="D431">
+        <v>12.5</v>
+      </c>
+      <c r="E431">
+        <v>45</v>
+      </c>
+      <c r="G431">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="432" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A432">
+        <v>40</v>
+      </c>
+      <c r="B432">
+        <v>102</v>
+      </c>
+      <c r="C432">
+        <v>12.35</v>
+      </c>
+      <c r="D432">
+        <v>8</v>
+      </c>
+      <c r="E432">
+        <v>25</v>
+      </c>
+      <c r="G432">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="433" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A433">
+        <v>40</v>
+      </c>
+      <c r="B433">
+        <v>103</v>
+      </c>
+      <c r="C433">
+        <v>15.27</v>
+      </c>
+      <c r="D433">
+        <v>14.5</v>
+      </c>
+      <c r="E433">
+        <v>45</v>
+      </c>
+      <c r="G433">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="434" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A434">
+        <v>40</v>
+      </c>
+      <c r="B434">
+        <v>104</v>
+      </c>
+      <c r="C434">
+        <v>13.55</v>
+      </c>
+      <c r="D434">
+        <v>11.6</v>
+      </c>
+      <c r="E434">
+        <v>30</v>
+      </c>
+      <c r="G434">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="435" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A435">
+        <v>40</v>
+      </c>
+      <c r="B435">
+        <v>105</v>
+      </c>
+      <c r="C435">
+        <v>21.4</v>
+      </c>
+      <c r="D435">
+        <v>19</v>
+      </c>
+      <c r="E435">
+        <v>120</v>
+      </c>
+      <c r="G435">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="436" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A436">
+        <v>40</v>
+      </c>
+      <c r="B436">
+        <v>106</v>
+      </c>
+      <c r="C436">
+        <v>18.37</v>
+      </c>
+      <c r="D436">
+        <v>16.3</v>
+      </c>
+      <c r="E436">
+        <v>60</v>
+      </c>
+      <c r="G436">
+        <f t="shared" si="9"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="437" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A437">
+        <v>40</v>
+      </c>
+      <c r="B437">
+        <v>107</v>
+      </c>
+      <c r="C437">
+        <v>25.7</v>
+      </c>
+      <c r="D437">
+        <v>18.3</v>
+      </c>
+      <c r="E437">
+        <v>90</v>
+      </c>
+      <c r="G437">
+        <f t="shared" ref="G437:G500" si="10">(F437*100/E437)/100</f>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="438" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A438">
+        <v>40</v>
+      </c>
+      <c r="B438">
+        <v>108</v>
+      </c>
+      <c r="C438">
+        <v>15.54</v>
+      </c>
+      <c r="D438">
+        <v>11.7</v>
+      </c>
+      <c r="E438">
+        <v>40</v>
+      </c>
+      <c r="G438">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="439" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A439">
+        <v>40</v>
+      </c>
+      <c r="B439">
+        <v>109</v>
+      </c>
+      <c r="C439">
+        <v>35.61</v>
+      </c>
+      <c r="D439">
+        <v>35.5</v>
+      </c>
+      <c r="E439">
+        <v>405</v>
+      </c>
+      <c r="G439">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="440" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A440">
+        <v>40</v>
+      </c>
+      <c r="B440">
+        <v>110</v>
+      </c>
+      <c r="C440">
+        <v>7.73</v>
+      </c>
+      <c r="D440">
+        <v>7</v>
+      </c>
+      <c r="E440">
+        <v>4</v>
+      </c>
+      <c r="G440">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="441" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A441">
+        <v>40</v>
+      </c>
+      <c r="B441">
+        <v>111</v>
+      </c>
+      <c r="C441">
+        <v>9.1999999999999993</v>
+      </c>
+      <c r="D441">
+        <v>10.5</v>
+      </c>
+      <c r="E441">
+        <v>13</v>
+      </c>
+      <c r="G441">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="442" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A442">
+        <v>40</v>
+      </c>
+      <c r="B442">
+        <v>112</v>
+      </c>
+      <c r="C442">
+        <v>21.23</v>
+      </c>
+      <c r="D442">
+        <v>18</v>
+      </c>
+      <c r="E442">
+        <v>100</v>
+      </c>
+      <c r="G442">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="443" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A443">
+        <v>40</v>
+      </c>
+      <c r="B443">
+        <v>113</v>
+      </c>
+      <c r="C443">
+        <v>11.59</v>
+      </c>
+      <c r="D443">
+        <v>12</v>
+      </c>
+      <c r="E443">
+        <v>30</v>
+      </c>
+      <c r="G443">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="444" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A444">
+        <v>40</v>
+      </c>
+      <c r="B444">
+        <v>114</v>
+      </c>
+      <c r="C444">
+        <v>32.94</v>
+      </c>
+      <c r="D444">
+        <v>24</v>
+      </c>
+      <c r="E444">
+        <v>280</v>
+      </c>
+      <c r="G444">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="445" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A445">
+        <v>40</v>
+      </c>
+      <c r="B445">
+        <v>115</v>
+      </c>
+      <c r="C445">
+        <v>65.53</v>
+      </c>
+      <c r="D445">
+        <v>184</v>
+      </c>
+      <c r="E445">
+        <v>4350</v>
+      </c>
+      <c r="G445">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="446" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A446">
+        <v>40</v>
+      </c>
+      <c r="B446">
+        <v>116</v>
+      </c>
+      <c r="C446">
+        <v>87.71</v>
+      </c>
+      <c r="D446">
+        <v>193</v>
+      </c>
+      <c r="E446">
+        <v>7680</v>
+      </c>
+      <c r="G446">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="447" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A447">
+        <v>40</v>
+      </c>
+      <c r="B447">
+        <v>117</v>
+      </c>
+      <c r="C447">
+        <v>67.45</v>
+      </c>
+      <c r="D447">
+        <v>179</v>
+      </c>
+      <c r="E447">
+        <v>5750</v>
+      </c>
+      <c r="G447">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="448" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A448">
+        <v>40</v>
+      </c>
+      <c r="B448">
+        <v>118</v>
+      </c>
+      <c r="C448">
+        <v>5.79</v>
+      </c>
+      <c r="D448">
+        <v>5.8</v>
+      </c>
+      <c r="E448">
+        <v>5.5</v>
+      </c>
+      <c r="G448">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="449" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A449">
+        <v>40</v>
+      </c>
+      <c r="B449">
+        <v>119</v>
+      </c>
+      <c r="C449">
+        <v>34.200000000000003</v>
+      </c>
+      <c r="D449">
+        <v>30</v>
+      </c>
+      <c r="E449">
+        <v>310</v>
+      </c>
+      <c r="G449">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="450" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A450">
+        <v>40</v>
+      </c>
+      <c r="B450">
+        <v>120</v>
+      </c>
+      <c r="C450">
+        <v>14.9</v>
+      </c>
+      <c r="D450">
+        <v>15</v>
+      </c>
+      <c r="E450">
+        <v>50</v>
+      </c>
+      <c r="G450">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="451" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A451">
+        <v>40</v>
+      </c>
+      <c r="B451">
+        <v>121</v>
+      </c>
+      <c r="C451">
+        <v>27</v>
+      </c>
+      <c r="D451">
+        <v>20</v>
+      </c>
+      <c r="E451">
+        <v>180</v>
+      </c>
+      <c r="G451">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="452" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A452">
+        <v>40</v>
+      </c>
+      <c r="B452">
+        <v>122</v>
+      </c>
+      <c r="C452">
+        <v>14.5</v>
+      </c>
+      <c r="D452">
+        <v>16.5</v>
+      </c>
+      <c r="E452">
+        <v>80</v>
+      </c>
+      <c r="G452">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="453" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A453">
+        <v>40</v>
+      </c>
+      <c r="B453">
+        <v>123</v>
+      </c>
+      <c r="C453">
+        <v>22.18</v>
+      </c>
+      <c r="D453">
+        <v>14.5</v>
+      </c>
+      <c r="E453">
+        <v>40</v>
+      </c>
+      <c r="G453">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="454" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A454">
+        <v>40</v>
+      </c>
+      <c r="B454">
+        <v>124</v>
+      </c>
+      <c r="C454">
+        <v>13.54</v>
+      </c>
+      <c r="D454">
+        <v>10</v>
+      </c>
+      <c r="E454">
+        <v>40</v>
+      </c>
+      <c r="G454">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="455" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A455">
+        <v>40</v>
+      </c>
+      <c r="B455">
+        <v>125</v>
+      </c>
+      <c r="C455">
+        <v>6.7</v>
+      </c>
+      <c r="D455">
+        <v>7.5</v>
+      </c>
+      <c r="E455">
+        <v>7</v>
+      </c>
+      <c r="G455">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="456" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A456">
+        <v>40</v>
+      </c>
+      <c r="B456">
+        <v>126</v>
+      </c>
+      <c r="C456">
+        <v>14.3</v>
+      </c>
+      <c r="D456">
+        <v>15.2</v>
+      </c>
+      <c r="E456">
+        <v>60</v>
+      </c>
+      <c r="G456">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="457" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A457">
+        <v>40</v>
+      </c>
+      <c r="B457">
+        <v>127</v>
+      </c>
+      <c r="C457">
+        <v>24.7</v>
+      </c>
+      <c r="D457">
+        <v>23.3</v>
+      </c>
+      <c r="E457">
+        <v>180</v>
+      </c>
+      <c r="G457">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="458" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A458">
+        <v>40</v>
+      </c>
+      <c r="B458">
+        <v>128</v>
+      </c>
+      <c r="C458">
+        <v>27.155999999999999</v>
+      </c>
+      <c r="D458">
+        <v>26.5</v>
+      </c>
+      <c r="E458">
+        <v>220</v>
+      </c>
+      <c r="G458">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="459" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A459">
+        <v>40</v>
+      </c>
+      <c r="B459">
+        <v>129</v>
+      </c>
+      <c r="C459">
+        <v>23.13</v>
+      </c>
+      <c r="D459">
+        <v>335</v>
+      </c>
+      <c r="E459">
+        <v>470</v>
+      </c>
+      <c r="G459">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="460" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A460">
+        <v>40</v>
+      </c>
+      <c r="B460">
+        <v>130</v>
+      </c>
+      <c r="C460">
+        <v>30.47</v>
+      </c>
+      <c r="D460">
+        <v>26.8</v>
+      </c>
+      <c r="E460">
+        <v>230</v>
+      </c>
+      <c r="G460">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="461" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A461">
+        <v>40</v>
+      </c>
+      <c r="B461">
+        <v>131</v>
+      </c>
+      <c r="C461">
+        <v>32.76</v>
+      </c>
+      <c r="D461">
+        <v>25.5</v>
+      </c>
+      <c r="E461">
+        <v>320</v>
+      </c>
+      <c r="G461">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="462" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A462">
+        <v>40</v>
+      </c>
+      <c r="B462">
+        <v>132</v>
+      </c>
+      <c r="C462">
+        <v>23.58</v>
+      </c>
+      <c r="D462">
+        <v>23</v>
+      </c>
+      <c r="E462">
+        <v>340</v>
+      </c>
+      <c r="G462">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="463" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A463">
+        <v>40</v>
+      </c>
+      <c r="B463">
+        <v>133</v>
+      </c>
+      <c r="C463">
+        <v>33.9</v>
+      </c>
+      <c r="D463">
+        <v>24.5</v>
+      </c>
+      <c r="E463">
+        <v>230</v>
+      </c>
+      <c r="G463">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="464" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A464">
+        <v>40</v>
+      </c>
+      <c r="B464">
+        <v>134</v>
+      </c>
+      <c r="C464">
+        <v>34.29</v>
+      </c>
+      <c r="D464">
+        <v>32</v>
+      </c>
+      <c r="E464">
+        <v>740</v>
+      </c>
+      <c r="G464">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="465" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A465">
+        <v>40</v>
+      </c>
+      <c r="B465">
+        <v>135</v>
+      </c>
+      <c r="C465">
+        <v>33.53</v>
+      </c>
+      <c r="D465">
+        <v>29.9</v>
+      </c>
+      <c r="E465">
+        <v>250</v>
+      </c>
+      <c r="G465">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="466" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A466">
+        <v>40</v>
+      </c>
+      <c r="B466">
+        <v>136</v>
+      </c>
+      <c r="C466">
+        <v>27.39</v>
+      </c>
+      <c r="D466">
+        <v>26</v>
+      </c>
+      <c r="E466">
+        <v>200</v>
+      </c>
+      <c r="G466">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="467" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A467">
+        <v>40</v>
+      </c>
+      <c r="B467">
+        <v>137</v>
+      </c>
+      <c r="C467">
+        <v>24.88</v>
+      </c>
+      <c r="D467">
+        <v>20.2</v>
+      </c>
+      <c r="E467">
+        <v>180</v>
+      </c>
+      <c r="G467">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="468" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A468">
+        <v>40</v>
+      </c>
+      <c r="B468">
+        <v>138</v>
+      </c>
+      <c r="C468">
+        <v>35.46</v>
+      </c>
+      <c r="D468">
+        <v>28.8</v>
+      </c>
+      <c r="E468">
+        <v>300</v>
+      </c>
+      <c r="G468">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="469" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A469">
+        <v>40</v>
+      </c>
+      <c r="B469">
+        <v>139</v>
+      </c>
+      <c r="C469">
+        <v>36.75</v>
+      </c>
+      <c r="D469">
+        <v>31.5</v>
+      </c>
+      <c r="E469">
+        <v>380</v>
+      </c>
+      <c r="G469">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="470" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A470">
+        <v>40</v>
+      </c>
+      <c r="B470">
+        <v>140</v>
+      </c>
+      <c r="C470">
+        <v>11.96</v>
+      </c>
+      <c r="D470">
+        <v>12.6</v>
+      </c>
+      <c r="E470">
+        <v>23</v>
+      </c>
+      <c r="G470">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="471" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A471">
+        <v>40</v>
+      </c>
+      <c r="B471">
+        <v>141</v>
+      </c>
+      <c r="C471">
+        <v>27.46</v>
+      </c>
+      <c r="D471">
+        <v>16.8</v>
+      </c>
+      <c r="E471">
+        <v>130</v>
+      </c>
+      <c r="G471">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="472" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A472">
+        <v>40</v>
+      </c>
+      <c r="B472">
+        <v>142</v>
+      </c>
+      <c r="C472">
+        <v>36.659999999999997</v>
+      </c>
+      <c r="D472">
+        <v>28.4</v>
+      </c>
+      <c r="E472">
+        <v>330</v>
+      </c>
+      <c r="G472">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="473" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A473">
+        <v>40</v>
+      </c>
+      <c r="B473">
+        <v>143</v>
+      </c>
+      <c r="C473">
+        <v>40.659999999999997</v>
+      </c>
+      <c r="D473">
+        <v>29.3</v>
+      </c>
+      <c r="E473">
+        <v>310</v>
+      </c>
+      <c r="G473">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="474" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A474">
+        <v>40</v>
+      </c>
+      <c r="B474">
+        <v>144</v>
+      </c>
+      <c r="C474">
+        <v>54.12</v>
+      </c>
+      <c r="D474">
+        <v>75.5</v>
+      </c>
+      <c r="E474">
+        <v>1630</v>
+      </c>
+      <c r="G474">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="475" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A475">
+        <v>40</v>
+      </c>
+      <c r="B475">
+        <v>145</v>
+      </c>
+      <c r="C475">
+        <v>54.82</v>
+      </c>
+      <c r="D475">
+        <v>81</v>
+      </c>
+      <c r="E475">
+        <v>2320</v>
+      </c>
+      <c r="G475">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="476" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A476">
+        <v>40</v>
+      </c>
+      <c r="B476">
+        <v>146</v>
+      </c>
+      <c r="C476">
+        <v>40.15</v>
+      </c>
+      <c r="D476">
+        <v>86</v>
+      </c>
+      <c r="E476">
+        <v>2110</v>
+      </c>
+      <c r="G476">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="477" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A477">
+        <v>40</v>
+      </c>
+      <c r="B477">
+        <v>147</v>
+      </c>
+      <c r="C477">
+        <v>45</v>
+      </c>
+      <c r="D477">
+        <v>84</v>
+      </c>
+      <c r="E477">
+        <v>1970</v>
+      </c>
+      <c r="G477">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="478" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A478">
+        <v>40</v>
+      </c>
+      <c r="B478">
+        <v>148</v>
+      </c>
+      <c r="C478">
+        <v>7.8</v>
+      </c>
+      <c r="D478">
+        <v>7.5</v>
+      </c>
+      <c r="E478">
+        <v>4</v>
+      </c>
+      <c r="G478">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="479" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A479">
+        <v>40</v>
+      </c>
+      <c r="B479">
+        <v>149</v>
+      </c>
+      <c r="C479">
+        <v>10.6</v>
+      </c>
+      <c r="D479">
+        <v>12.5</v>
+      </c>
+      <c r="E479">
+        <v>24</v>
+      </c>
+      <c r="G479">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="480" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A480">
+        <v>40</v>
+      </c>
+      <c r="B480">
+        <v>150</v>
+      </c>
+      <c r="C480">
+        <v>13.7</v>
+      </c>
+      <c r="D480">
+        <v>8</v>
+      </c>
+      <c r="E480">
+        <v>9</v>
+      </c>
+      <c r="G480">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="481" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A481">
+        <v>40</v>
+      </c>
+      <c r="B481">
+        <v>151</v>
+      </c>
+      <c r="C481">
+        <v>8.32</v>
+      </c>
+      <c r="D481">
+        <v>8.5</v>
+      </c>
+      <c r="E481">
+        <v>10</v>
+      </c>
+      <c r="G481">
+        <f t="shared" si="10"/>
+        <v>0</v>
       </c>
     </row>
   </sheetData>
